--- a/input/Tarea_2_datos_eeuu_alaffert.xlsx
+++ b/input/Tarea_2_datos_eeuu_alaffert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mintrab-my.sharepoint.com/personal/alaffert_mintrab_gob_cl/Documents/Documentos/GitHub/eha/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CBCEF7-353F-CD48-8283-F3B64F1F5CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B7CBCEF7-353F-CD48-8283-F3B64F1F5CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC4614D7-A631-463E-81C2-916C97FA9C26}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{E2D4BBB7-E8DF-384F-947C-2FB3857B4306}"/>
+    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="2" xr2:uid="{E2D4BBB7-E8DF-384F-947C-2FB3857B4306}"/>
   </bookViews>
   <sheets>
     <sheet name="Hombres Blancos" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0F015FD0-F4E5-4441-A1B1-EE3E04F92251}">
       <text>
         <t>[Comentario encadenado]
-Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Hazard</t>
       </text>
@@ -57,7 +57,7 @@
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{2A63340D-B567-214B-84B9-3EE67D3A27BE}">
       <text>
         <t>[Comentario encadenado]
-Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Set de riesgo</t>
       </text>
@@ -65,7 +65,7 @@
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{FAE1220A-0AA1-8942-AEC7-DA069D1AFB05}">
       <text>
         <t>[Comentario encadenado]
-Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     N° que experimenta el evento</t>
       </text>
@@ -684,9 +684,9 @@
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -770,12 +770,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -982,32 +976,32 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,9 +1027,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1073,7 +1067,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1179,7 +1173,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1321,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1345,24 +1339,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB5AF78-7033-A748-AAEE-EC1E828C5C85}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="2" width="14.69921875" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.296875" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" ht="67" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1383,18 +1377,18 @@
       <c r="G1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:11" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="38"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1416,14 +1410,14 @@
       <c r="H2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1447,20 +1441,20 @@
         <f>F3/C3</f>
         <v>76.370585930175778</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="27">
         <f>D3/E3</f>
         <v>5.2979349247339273E-3</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="26">
         <f>D3/C3</f>
         <v>5.2733496093750002E-3</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="26">
         <f>1-I3</f>
         <v>0.99472665039062502</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -1484,20 +1478,20 @@
         <f t="shared" ref="G4:G67" si="1">F4/C4</f>
         <v>75.77481430445205</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="27">
         <f>D4/E4</f>
         <v>3.8869088102925863E-4</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <f>D4/C4</f>
         <v>3.8861535609981498E-4</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="26">
         <f>(1-I4)*J3</f>
         <v>0.99434008433916155</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1521,20 +1515,20 @@
         <f t="shared" si="1"/>
         <v>74.804078357108395</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="27">
         <f t="shared" ref="H5:H67" si="2">D5/E5</f>
         <v>2.7263294940426422E-4</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <f t="shared" ref="I5:I68" si="3">D5/C5</f>
         <v>2.7259578450954987E-4</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="26">
         <f>(1-I5)*J4</f>
         <v>0.99406903142380176</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1558,20 +1552,20 @@
         <f t="shared" si="1"/>
         <v>73.824336109872434</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="27">
         <f t="shared" si="2"/>
         <v>1.9902537112601547E-4</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <f t="shared" si="3"/>
         <v>1.9900556882670298E-4</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <f t="shared" ref="J6:J69" si="4">(1-I6)*J5</f>
         <v>0.99387120615075031</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>113</v>
       </c>
@@ -1595,20 +1589,20 @@
         <f t="shared" si="1"/>
         <v>72.838930022551494</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <f t="shared" si="2"/>
         <v>1.4687042663913321E-4</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <f t="shared" si="3"/>
         <v>1.4685964360114533E-4</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="26">
         <f t="shared" si="4"/>
         <v>0.99372524657962957</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1632,20 +1626,20 @@
         <f t="shared" si="1"/>
         <v>71.84955364506304</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="27">
         <f t="shared" si="2"/>
         <v>1.4264447797646444E-4</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <f t="shared" si="3"/>
         <v>1.4263430645478791E-4</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="26">
         <f t="shared" si="4"/>
         <v>0.99358350726827704</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -1669,20 +1663,20 @@
         <f t="shared" si="1"/>
         <v>70.85973051354118</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="27">
         <f t="shared" si="2"/>
         <v>1.2553185064988328E-4</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <f t="shared" si="3"/>
         <v>1.2552397398367908E-4</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <f t="shared" si="4"/>
         <v>0.99345878871796012</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1706,20 +1700,20 @@
         <f t="shared" si="1"/>
         <v>69.868561255148322</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="27">
         <f t="shared" si="2"/>
         <v>1.1201612814761452E-4</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <f t="shared" si="3"/>
         <v>1.1200985622525415E-4</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <f t="shared" si="4"/>
         <v>0.99334751154187007</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1743,21 +1737,21 @@
         <f t="shared" si="1"/>
         <v>68.876330189207891</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="27">
         <f t="shared" si="2"/>
         <v>1.0011265814509847E-4</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="26">
         <f t="shared" si="3"/>
         <v>1.0010765048471866E-4</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="26">
         <f t="shared" si="4"/>
         <v>0.9932480698563747</v>
       </c>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1781,20 +1775,20 @@
         <f t="shared" si="1"/>
         <v>67.883176615538645</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <f t="shared" si="2"/>
         <v>9.1249572543137351E-5</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="26">
         <f t="shared" si="3"/>
         <v>9.1245409690143652E-5</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="26">
         <f t="shared" si="4"/>
         <v>0.99315744052931665</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1818,20 +1812,20 @@
         <f t="shared" si="1"/>
         <v>66.889325287728525</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="27">
         <f t="shared" si="2"/>
         <v>9.0347474410771905E-5</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="26">
         <f t="shared" si="3"/>
         <v>9.0343394978016371E-5</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <f t="shared" si="4"/>
         <v>0.99306771531439153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1855,20 +1849,20 @@
         <f t="shared" si="1"/>
         <v>65.895321144273638</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="27">
         <f t="shared" si="2"/>
         <v>1.0523464344597226E-4</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="26">
         <f t="shared" si="3"/>
         <v>1.0522910489773877E-4</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="26">
         <f t="shared" si="4"/>
         <v>0.99296321568760615</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1892,20 +1886,20 @@
         <f t="shared" si="1"/>
         <v>64.902205441260847</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="27">
         <f t="shared" si="2"/>
         <v>1.4489983462642842E-4</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="26">
         <f t="shared" si="3"/>
         <v>1.4488933474663434E-4</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="26">
         <f t="shared" si="4"/>
         <v>0.99281934590785725</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1929,20 +1923,20 @@
         <f t="shared" si="1"/>
         <v>63.91154035089383</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="27">
         <f t="shared" si="2"/>
         <v>2.1468731370593132E-4</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="26">
         <f t="shared" si="3"/>
         <v>2.1466427062715723E-4</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="26">
         <f t="shared" si="4"/>
         <v>0.99260622306710344</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -1966,20 +1960,20 @@
         <f t="shared" si="1"/>
         <v>62.925155602131255</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="27">
         <f t="shared" si="2"/>
         <v>3.091549488865105E-4</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="26">
         <f t="shared" si="3"/>
         <v>3.0910718391826883E-4</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="26">
         <f t="shared" si="4"/>
         <v>0.99229940135275141</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -2003,20 +1997,20 @@
         <f t="shared" si="1"/>
         <v>61.944456028055569</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="27">
         <f t="shared" si="2"/>
         <v>4.1244463404410176E-4</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="26">
         <f t="shared" si="3"/>
         <v>4.1235958911952383E-4</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="26">
         <f t="shared" si="4"/>
         <v>0.99189021717932602</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -2040,20 +2034,20 @@
         <f t="shared" si="1"/>
         <v>60.969805830521992</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="27">
         <f t="shared" si="2"/>
         <v>5.2042833819977057E-4</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="26">
         <f t="shared" si="3"/>
         <v>5.2029294529932428E-4</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="26">
         <f t="shared" si="4"/>
         <v>0.9913741436968162</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
@@ -2077,20 +2071,20 @@
         <f t="shared" si="1"/>
         <v>60.001285455735761</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="27">
         <f t="shared" si="2"/>
         <v>6.4266625363485473E-4</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="26">
         <f t="shared" si="3"/>
         <v>6.4245982398268976E-4</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="26">
         <f t="shared" si="4"/>
         <v>0.99073722563895572</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -2114,20 +2108,20 @@
         <f t="shared" si="1"/>
         <v>59.039539281411876</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="27">
         <f t="shared" si="2"/>
         <v>7.7834213806602358E-4</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="26">
         <f t="shared" si="3"/>
         <v>7.7803936782262924E-4</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="26">
         <f t="shared" si="4"/>
         <v>0.98996639307424128</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
@@ -2151,20 +2145,20 @@
         <f t="shared" si="1"/>
         <v>58.085122357075718</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="27">
         <f t="shared" si="2"/>
         <v>9.2098672517148227E-4</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="26">
         <f t="shared" si="3"/>
         <v>9.2056284757926598E-4</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="26">
         <f t="shared" si="4"/>
         <v>0.98905506679242505</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
@@ -2188,20 +2182,20 @@
         <f t="shared" si="1"/>
         <v>57.138181993170562</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="27">
         <f t="shared" si="2"/>
         <v>1.0683121624950032E-3</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="26">
         <f t="shared" si="3"/>
         <v>1.067741801034447E-3</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="26">
         <f t="shared" si="4"/>
         <v>0.98799901135408585</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
@@ -2225,20 +2219,20 @@
         <f t="shared" si="1"/>
         <v>56.198723786188893</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="27">
         <f t="shared" si="2"/>
         <v>1.2096312702932562E-3</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="26">
         <f t="shared" si="3"/>
         <v>1.2089001190616734E-3</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="26">
         <f t="shared" si="4"/>
         <v>0.98680461923162699</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
@@ -2262,20 +2256,20 @@
         <f t="shared" si="1"/>
         <v>55.266138513066046</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="27">
         <f t="shared" si="2"/>
         <v>1.3313798823662553E-3</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="26">
         <f t="shared" si="3"/>
         <v>1.330494164888186E-3</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="26">
         <f t="shared" si="4"/>
         <v>0.98549168144385457</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -2299,20 +2293,20 @@
         <f t="shared" si="1"/>
         <v>54.33910334144371</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="27">
         <f t="shared" si="2"/>
         <v>1.4255005150905476E-3</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="26">
         <f t="shared" si="3"/>
         <v>1.4244851492568786E-3</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="26">
         <f t="shared" si="4"/>
         <v>0.98408786317892161</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -2336,20 +2330,20 @@
         <f t="shared" si="1"/>
         <v>53.41590633158134</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="27">
         <f t="shared" si="2"/>
         <v>1.4976305867815884E-3</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="26">
         <f t="shared" si="3"/>
         <v>1.49650988951221E-3</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="26">
         <f t="shared" si="4"/>
         <v>0.98261516595952536</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
@@ -2373,20 +2367,20 @@
         <f t="shared" si="1"/>
         <v>52.495216241469969</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="27">
         <f t="shared" si="2"/>
         <v>1.5618824985629781E-3</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="26">
         <f t="shared" si="3"/>
         <v>1.5606636625755427E-3</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="26">
         <f t="shared" si="4"/>
         <v>0.9810816341757167</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
@@ -2410,20 +2404,20 @@
         <f t="shared" si="1"/>
         <v>51.57648931665738</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="27">
         <f t="shared" si="2"/>
         <v>1.6252359543298474E-3</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="26">
         <f t="shared" si="3"/>
         <v>1.6239163881853445E-3</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="26">
         <f t="shared" si="4"/>
         <v>0.97948843963183108</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
@@ -2447,20 +2441,20 @@
         <f t="shared" si="1"/>
         <v>50.659568592232183</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="27">
         <f t="shared" si="2"/>
         <v>1.6833147106712206E-3</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="26">
         <f t="shared" si="3"/>
         <v>1.6818991767644795E-3</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="26">
         <f t="shared" si="4"/>
         <v>0.97784103883156392</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
@@ -2471,7 +2465,7 @@
         <v>97784.09375</v>
       </c>
       <c r="D31" s="9">
-        <v>169.89871215820312</v>
+        <v>169.89871215820313</v>
       </c>
       <c r="E31" s="9">
         <v>97699.140625</v>
@@ -2484,20 +2478,20 @@
         <f t="shared" si="1"/>
         <v>49.744075108893448</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="27">
         <f t="shared" si="2"/>
         <v>1.7389990441198226E-3</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="26">
         <f t="shared" si="3"/>
         <v>1.7374882319058473E-3</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="26">
         <f t="shared" si="4"/>
         <v>0.97614205153391942</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
@@ -2521,20 +2515,20 @@
         <f t="shared" si="1"/>
         <v>48.82978493108272</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="27">
         <f t="shared" si="2"/>
         <v>1.7938570282122206E-3</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="26">
         <f t="shared" si="3"/>
         <v>1.7922494705620029E-3</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="26">
         <f t="shared" si="4"/>
         <v>0.97439256145886444</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
@@ -2545,7 +2539,7 @@
         <v>97439.25</v>
       </c>
       <c r="D33" s="9">
-        <v>179.92849731445312</v>
+        <v>179.92849731445313</v>
       </c>
       <c r="E33" s="9">
         <v>97349.28125</v>
@@ -2558,20 +2552,20 @@
         <f t="shared" si="1"/>
         <v>47.916557697027407</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="27">
         <f t="shared" si="2"/>
         <v>1.8482776144220698E-3</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="26">
         <f t="shared" si="3"/>
         <v>1.8465710410789607E-3</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="26">
         <f t="shared" si="4"/>
         <v>0.9725932763722317</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>40</v>
       </c>
@@ -2595,20 +2589,20 @@
         <f t="shared" si="1"/>
         <v>47.004278342078074</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="27">
         <f t="shared" si="2"/>
         <v>1.9017230684255759E-3</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="26">
         <f t="shared" si="3"/>
         <v>1.8999165435361954E-3</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="26">
         <f t="shared" si="4"/>
         <v>0.9707454303163201</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>41</v>
       </c>
@@ -2632,20 +2626,20 @@
         <f t="shared" si="1"/>
         <v>46.092799171178946</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="27">
         <f t="shared" si="2"/>
         <v>1.9541772892497245E-3</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="26">
         <f t="shared" si="3"/>
         <v>1.952269749260817E-3</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="26">
         <f t="shared" si="4"/>
         <v>0.9688502733784804</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>42</v>
       </c>
@@ -2656,7 +2650,7 @@
         <v>96885.0234375</v>
       </c>
       <c r="D36" s="9">
-        <v>194.04727172851562</v>
+        <v>194.04727172851563</v>
       </c>
       <c r="E36" s="9">
         <v>96788</v>
@@ -2669,20 +2663,20 @@
         <f t="shared" si="1"/>
         <v>45.181982695359018</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="27">
         <f t="shared" si="2"/>
         <v>2.0048691132011783E-3</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="26">
         <f t="shared" si="3"/>
         <v>2.0028613798467464E-3</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="26">
         <f t="shared" si="4"/>
         <v>0.96690980058307674</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>43</v>
       </c>
@@ -2693,7 +2687,7 @@
         <v>96690.9765625</v>
       </c>
       <c r="D37" s="9">
-        <v>198.47232055664062</v>
+        <v>198.47232055664063</v>
       </c>
       <c r="E37" s="9">
         <v>96591.7421875</v>
@@ -2706,20 +2700,20 @@
         <f t="shared" si="1"/>
         <v>44.271653928591775</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="27">
         <f t="shared" si="2"/>
         <v>2.0547545376226276E-3</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="26">
         <f t="shared" si="3"/>
         <v>2.0526457339930812E-3</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="26">
         <f t="shared" si="4"/>
         <v>0.96492507730575372</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>44</v>
       </c>
@@ -2730,7 +2724,7 @@
         <v>96492.5078125</v>
       </c>
       <c r="D38" s="9">
-        <v>203.67263793945312</v>
+        <v>203.67263793945313</v>
       </c>
       <c r="E38" s="9">
         <v>96390.671875</v>
@@ -2743,20 +2737,20 @@
         <f t="shared" si="1"/>
         <v>43.361684809098278</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="27">
         <f t="shared" si="2"/>
         <v>2.1129911637463947E-3</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="26">
         <f t="shared" si="3"/>
         <v>2.110761162257497E-3</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="26">
         <f t="shared" si="4"/>
         <v>0.96288835092808844</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>45</v>
       </c>
@@ -2767,7 +2761,7 @@
         <v>96288.8359375</v>
       </c>
       <c r="D39" s="9">
-        <v>209.36770629882812</v>
+        <v>209.36770629882813</v>
       </c>
       <c r="E39" s="9">
         <v>96184.15625</v>
@@ -2780,20 +2774,20 @@
         <f t="shared" si="1"/>
         <v>42.452346614547814</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="27">
         <f t="shared" si="2"/>
         <v>2.1767379832770338E-3</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="26">
         <f t="shared" si="3"/>
         <v>2.1743715588661426E-3</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="26">
         <f t="shared" si="4"/>
         <v>0.96079467388346695</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>46</v>
       </c>
@@ -2817,20 +2811,20 @@
         <f t="shared" si="1"/>
         <v>41.543765114543042</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="27">
         <f t="shared" si="2"/>
         <v>2.2354212217168675E-3</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="26">
         <f t="shared" si="3"/>
         <v>2.2329255391573643E-3</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="26">
         <f t="shared" si="4"/>
         <v>0.95864929091826623</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>47</v>
       </c>
@@ -2854,20 +2848,20 @@
         <f t="shared" si="1"/>
         <v>40.635618172920054</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="27">
         <f t="shared" si="2"/>
         <v>2.2876710369221158E-3</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="26">
         <f t="shared" si="3"/>
         <v>2.2850574263280263E-3</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="26">
         <f t="shared" si="4"/>
         <v>0.95645872223680939</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>48</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>95645.875</v>
       </c>
       <c r="D42" s="9">
-        <v>223.83828735351562</v>
+        <v>223.83828735351563</v>
       </c>
       <c r="E42" s="9">
         <v>95533.953125</v>
@@ -2891,20 +2885,20 @@
         <f t="shared" si="1"/>
         <v>39.727539454316016</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="27">
         <f t="shared" si="2"/>
         <v>2.3430233967251172E-3</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="26">
         <f t="shared" si="3"/>
         <v>2.3402816624712316E-3</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="26">
         <f t="shared" si="4"/>
         <v>0.95422033942824791</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>49</v>
       </c>
@@ -2915,7 +2909,7 @@
         <v>95422.0390625</v>
       </c>
       <c r="D43" s="9">
-        <v>230.25222778320312</v>
+        <v>230.25222778320313</v>
       </c>
       <c r="E43" s="9">
         <v>95306.9140625</v>
@@ -2928,20 +2922,20 @@
         <f t="shared" si="1"/>
         <v>38.819557368228693</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="27">
         <f t="shared" si="2"/>
         <v>2.4159026661193669E-3</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="26">
         <f t="shared" si="3"/>
         <v>2.4129879223435098E-3</v>
       </c>
-      <c r="J43" s="28">
+      <c r="J43" s="26">
         <f t="shared" si="4"/>
         <v>0.95191781727395308</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>50</v>
       </c>
@@ -2965,20 +2959,20 @@
         <f t="shared" si="1"/>
         <v>37.912244754093891</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H44" s="27">
         <f t="shared" si="2"/>
         <v>2.5186807823571987E-3</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="26">
         <f t="shared" si="3"/>
         <v>2.5155129356860071E-3</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="26">
         <f t="shared" si="4"/>
         <v>0.94952325569089047</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>51</v>
       </c>
@@ -3002,20 +2996,20 @@
         <f t="shared" si="1"/>
         <v>37.006591868687572</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="27">
         <f t="shared" si="2"/>
         <v>2.6522155873266355E-3</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="26">
         <f t="shared" si="3"/>
         <v>2.6487031291357612E-3</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="26">
         <f t="shared" si="4"/>
         <v>0.94700825047235482</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>52</v>
       </c>
@@ -3026,7 +3020,7 @@
         <v>94700.8359375</v>
       </c>
       <c r="D46" s="9">
-        <v>266.24819946289062</v>
+        <v>266.24819946289063</v>
       </c>
       <c r="E46" s="9">
         <v>94567.7109375</v>
@@ -3039,20 +3033,20 @@
         <f t="shared" si="1"/>
         <v>36.103543577340218</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="27">
         <f t="shared" si="2"/>
         <v>2.8154239626129326E-3</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="26">
         <f t="shared" si="3"/>
         <v>2.8114662011917957E-3</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="26">
         <f t="shared" si="4"/>
         <v>0.94434576878390208</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>53</v>
       </c>
@@ -3076,20 +3070,20 @@
         <f t="shared" si="1"/>
         <v>35.203924633532289</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="27">
         <f t="shared" si="2"/>
         <v>3.0034751407928845E-3</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="26">
         <f t="shared" si="3"/>
         <v>2.9989715283860099E-3</v>
       </c>
-      <c r="J47" s="28">
+      <c r="J47" s="26">
         <f t="shared" si="4"/>
         <v>0.94151370271036738</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>54</v>
       </c>
@@ -3113,20 +3107,20 @@
         <f t="shared" si="1"/>
         <v>34.308312478005625</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="27">
         <f t="shared" si="2"/>
         <v>3.2076731927272758E-3</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="26">
         <f t="shared" si="3"/>
         <v>3.2025369772060073E-3</v>
       </c>
-      <c r="J48" s="28">
+      <c r="J48" s="26">
         <f t="shared" si="4"/>
         <v>0.93849847026289135</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>55</v>
       </c>
@@ -3137,7 +3131,7 @@
         <v>93849.859375</v>
       </c>
       <c r="D49" s="9">
-        <v>322.17910766601562</v>
+        <v>322.17910766601563</v>
       </c>
       <c r="E49" s="9">
         <v>93688.765625</v>
@@ -3150,20 +3144,20 @@
         <f t="shared" si="1"/>
         <v>33.41693272268239</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="27">
         <f t="shared" si="2"/>
         <v>3.4388232731720936E-3</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="26">
         <f t="shared" si="3"/>
         <v>3.4329205159346105E-3</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="26">
         <f t="shared" si="4"/>
         <v>0.93527667961015271</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>56</v>
       </c>
@@ -3174,7 +3168,7 @@
         <v>93527.6796875</v>
       </c>
       <c r="D50" s="9">
-        <v>346.92068481445312</v>
+        <v>346.92068481445313</v>
       </c>
       <c r="E50" s="9">
         <v>93354.21875</v>
@@ -3187,20 +3181,20 @@
         <f t="shared" si="1"/>
         <v>32.53032344337317</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="27">
         <f t="shared" si="2"/>
         <v>3.7161757600210556E-3</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="26">
         <f t="shared" si="3"/>
         <v>3.7092835615467447E-3</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="26">
         <f t="shared" si="4"/>
         <v>0.93180747319697677</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>57</v>
       </c>
@@ -3211,7 +3205,7 @@
         <v>93180.7578125</v>
       </c>
       <c r="D51" s="9">
-        <v>377.10549926757812</v>
+        <v>377.10549926757813</v>
       </c>
       <c r="E51" s="9">
         <v>92992.203125</v>
@@ -3224,20 +3218,20 @@
         <f t="shared" si="1"/>
         <v>31.649575745315076</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H51" s="27">
         <f t="shared" si="2"/>
         <v>4.0552378220427079E-3</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="26">
         <f t="shared" si="3"/>
         <v>4.0470318992940216E-3</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J51" s="26">
         <f t="shared" si="4"/>
         <v>0.92803641862894803</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>58</v>
       </c>
@@ -3248,7 +3242,7 @@
         <v>92803.6484375</v>
       </c>
       <c r="D52" s="9">
-        <v>412.54470825195312</v>
+        <v>412.54470825195313</v>
       </c>
       <c r="E52" s="9">
         <v>92597.375</v>
@@ -3261,20 +3255,20 @@
         <f t="shared" si="1"/>
         <v>30.776152633601335</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H52" s="27">
         <f t="shared" si="2"/>
         <v>4.4552527353173147E-3</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="26">
         <f t="shared" si="3"/>
         <v>4.445350104201857E-3</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J52" s="26">
         <f t="shared" si="4"/>
         <v>0.92391097183869275</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>59</v>
       </c>
@@ -3298,20 +3292,20 @@
         <f t="shared" si="1"/>
         <v>29.911342407776353</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="27">
         <f t="shared" si="2"/>
         <v>4.8860865708843767E-3</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="26">
         <f t="shared" si="3"/>
         <v>4.8741788104678307E-3</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J53" s="26">
         <f t="shared" si="4"/>
         <v>0.91940766455699785</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>60</v>
       </c>
@@ -3322,7 +3316,7 @@
         <v>91940.7734375</v>
       </c>
       <c r="D54" s="9">
-        <v>490.15969848632812</v>
+        <v>490.15969848632813</v>
       </c>
       <c r="E54" s="9">
         <v>91695.6953125</v>
@@ -3335,20 +3329,20 @@
         <f t="shared" si="1"/>
         <v>29.055399872000649</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="27">
         <f t="shared" si="2"/>
         <v>5.3455039172325171E-3</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="26">
         <f t="shared" si="3"/>
         <v>5.3312548955174012E-3</v>
       </c>
-      <c r="J54" s="28">
+      <c r="J54" s="26">
         <f t="shared" si="4"/>
         <v>0.91450606794435207</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>61</v>
       </c>
@@ -3372,20 +3366,20 @@
         <f t="shared" si="1"/>
         <v>28.208450864426574</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="27">
         <f t="shared" si="2"/>
         <v>5.8614535521780324E-3</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="26">
         <f t="shared" si="3"/>
         <v>5.8443253804414076E-3</v>
       </c>
-      <c r="J55" s="28">
+      <c r="J55" s="26">
         <f t="shared" si="4"/>
         <v>0.90916139692089715</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>62</v>
       </c>
@@ -3409,20 +3403,20 @@
         <f t="shared" si="1"/>
         <v>27.371340530921049</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="27">
         <f t="shared" si="2"/>
         <v>6.4290888364184826E-3</v>
       </c>
-      <c r="I56" s="28">
+      <c r="I56" s="26">
         <f t="shared" si="3"/>
         <v>6.4084882698403327E-3</v>
       </c>
-      <c r="J56" s="28">
+      <c r="J56" s="26">
         <f t="shared" si="4"/>
         <v>0.90333504677333798</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>63</v>
       </c>
@@ -3446,20 +3440,20 @@
         <f t="shared" si="1"/>
         <v>26.544655258097379</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="27">
         <f t="shared" si="2"/>
         <v>7.0280287051926972E-3</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="26">
         <f t="shared" si="3"/>
         <v>7.0034187005791901E-3</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="26">
         <f t="shared" si="4"/>
         <v>0.89700861321387704</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>64</v>
       </c>
@@ -3483,20 +3477,20 @@
         <f t="shared" si="1"/>
         <v>25.728342507306401</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="27">
         <f t="shared" si="2"/>
         <v>7.6364823386683676E-3</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I58" s="26">
         <f t="shared" si="3"/>
         <v>7.6074354427719494E-3</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="26">
         <f t="shared" si="4"/>
         <v>0.890184678097242</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>65</v>
       </c>
@@ -3520,20 +3514,20 @@
         <f t="shared" si="1"/>
         <v>24.921735874225035</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="27">
         <f t="shared" si="2"/>
         <v>8.2526187168992186E-3</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="26">
         <f t="shared" si="3"/>
         <v>8.2187054110777202E-3</v>
       </c>
-      <c r="J59" s="28">
+      <c r="J59" s="26">
         <f t="shared" si="4"/>
         <v>0.88286851246650577</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>66</v>
       </c>
@@ -3557,20 +3551,20 @@
         <f t="shared" si="1"/>
         <v>24.124114395398205</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="27">
         <f t="shared" si="2"/>
         <v>8.8962399330475665E-3</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="26">
         <f t="shared" si="3"/>
         <v>8.856843118787398E-3</v>
       </c>
-      <c r="J60" s="28">
+      <c r="J60" s="26">
         <f t="shared" si="4"/>
         <v>0.87504908455707275</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>67</v>
       </c>
@@ -3594,20 +3588,20 @@
         <f t="shared" si="1"/>
         <v>23.335219885510906</v>
       </c>
-      <c r="H61" s="29">
+      <c r="H61" s="27">
         <f t="shared" si="2"/>
         <v>9.5881373747554316E-3</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="26">
         <f t="shared" si="3"/>
         <v>9.5423908353815812E-3</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="26">
         <f t="shared" si="4"/>
         <v>0.86669902419208633</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -3631,20 +3625,20 @@
         <f t="shared" si="1"/>
         <v>22.555222216245383</v>
       </c>
-      <c r="H62" s="29">
+      <c r="H62" s="27">
         <f t="shared" si="2"/>
         <v>1.0338394180487678E-2</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="26">
         <f t="shared" si="3"/>
         <v>1.0285227687682495E-2</v>
       </c>
-      <c r="J62" s="28">
+      <c r="J62" s="26">
         <f t="shared" si="4"/>
         <v>0.85778482739157846</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>69</v>
       </c>
@@ -3668,20 +3662,20 @@
         <f t="shared" si="1"/>
         <v>21.784423115447154</v>
       </c>
-      <c r="H63" s="29">
+      <c r="H63" s="27">
         <f t="shared" si="2"/>
         <v>1.1159836860943982E-2</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="26">
         <f t="shared" si="3"/>
         <v>1.1097912004821284E-2</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="26">
         <f t="shared" si="4"/>
         <v>0.84826520685811591</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>70</v>
       </c>
@@ -3705,20 +3699,20 @@
         <f t="shared" si="1"/>
         <v>21.023286301036602</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H64" s="27">
         <f t="shared" si="2"/>
         <v>1.2024298589175411E-2</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="26">
         <f t="shared" si="3"/>
         <v>1.1952439375127327E-2</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J64" s="26">
         <f t="shared" si="4"/>
         <v>0.83812636839911436</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>71</v>
       </c>
@@ -3742,20 +3736,20 @@
         <f t="shared" si="1"/>
         <v>20.271556743724073</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H65" s="27">
         <f t="shared" si="2"/>
         <v>1.2896996134448831E-2</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="26">
         <f t="shared" si="3"/>
         <v>1.2814361975868984E-2</v>
       </c>
-      <c r="J65" s="28">
+      <c r="J65" s="26">
         <f t="shared" si="4"/>
         <v>0.82738631373292759</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>72</v>
       </c>
@@ -3779,20 +3773,20 @@
         <f t="shared" si="1"/>
         <v>19.52820599676825</v>
       </c>
-      <c r="H66" s="29">
+      <c r="H66" s="27">
         <f t="shared" si="2"/>
         <v>1.3750805862850105E-2</v>
       </c>
-      <c r="I66" s="28">
+      <c r="I66" s="26">
         <f t="shared" si="3"/>
         <v>1.3656909190517656E-2</v>
       </c>
-      <c r="J66" s="28">
+      <c r="J66" s="26">
         <f t="shared" si="4"/>
         <v>0.81608677398079987</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>73</v>
       </c>
@@ -3816,20 +3810,20 @@
         <f t="shared" si="1"/>
         <v>18.79167035929941</v>
       </c>
-      <c r="H67" s="29">
+      <c r="H67" s="27">
         <f t="shared" si="2"/>
         <v>1.4607920889034778E-2</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="26">
         <f t="shared" si="3"/>
         <v>1.4501997886828839E-2</v>
       </c>
-      <c r="J67" s="28">
+      <c r="J67" s="26">
         <f t="shared" si="4"/>
         <v>0.80425188530906133</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>74</v>
       </c>
@@ -3853,20 +3847,20 @@
         <f t="shared" ref="G68:G103" si="6">F68/C68</f>
         <v>18.060840397229569</v>
       </c>
-      <c r="H68" s="29">
+      <c r="H68" s="27">
         <f t="shared" ref="H68:H103" si="7">D68/E68</f>
         <v>1.5503048349221683E-2</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="26">
         <f t="shared" si="3"/>
         <v>1.538380148721274E-2</v>
       </c>
-      <c r="J68" s="28">
+      <c r="J68" s="26">
         <f t="shared" si="4"/>
         <v>0.79187943395975013</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>75</v>
       </c>
@@ -3890,20 +3884,20 @@
         <f t="shared" si="6"/>
         <v>17.335213048923951</v>
       </c>
-      <c r="H69" s="29">
+      <c r="H69" s="27">
         <f t="shared" si="7"/>
         <v>1.6580408494458066E-2</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="26">
         <f t="shared" ref="I69:I103" si="8">D69/C69</f>
         <v>1.6444083834169062E-2</v>
       </c>
-      <c r="J69" s="28">
+      <c r="J69" s="26">
         <f t="shared" si="4"/>
         <v>0.77885770216116168</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
@@ -3927,20 +3921,20 @@
         <f t="shared" si="6"/>
         <v>16.616680867441104</v>
       </c>
-      <c r="H70" s="29">
+      <c r="H70" s="27">
         <f t="shared" si="7"/>
         <v>1.7780374920609476E-2</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="26">
         <f t="shared" si="8"/>
         <v>1.76236981387007E-2</v>
       </c>
-      <c r="J70" s="28">
+      <c r="J70" s="26">
         <f t="shared" ref="J70:J103" si="9">(1-I70)*J69</f>
         <v>0.76513134912527136</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>77</v>
       </c>
@@ -3964,20 +3958,20 @@
         <f t="shared" si="6"/>
         <v>15.905811317994466</v>
       </c>
-      <c r="H71" s="29">
+      <c r="H71" s="27">
         <f t="shared" si="7"/>
         <v>1.9149281742375526E-2</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="26">
         <f t="shared" si="8"/>
         <v>1.8967674431059286E-2</v>
       </c>
-      <c r="J71" s="28">
+      <c r="J71" s="26">
         <f t="shared" si="9"/>
         <v>0.75061858679806603</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>78</v>
       </c>
@@ -4001,20 +3995,20 @@
         <f t="shared" si="6"/>
         <v>15.203672793513061</v>
       </c>
-      <c r="H72" s="29">
+      <c r="H72" s="27">
         <f t="shared" si="7"/>
         <v>2.0800309329853411E-2</v>
       </c>
-      <c r="I72" s="28">
+      <c r="I72" s="26">
         <f t="shared" si="8"/>
         <v>2.0586208110080016E-2</v>
       </c>
-      <c r="J72" s="28">
+      <c r="J72" s="26">
         <f t="shared" si="9"/>
         <v>0.73516619635894687</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>79</v>
       </c>
@@ -4038,20 +4032,20 @@
         <f t="shared" si="6"/>
         <v>14.512728561558507</v>
       </c>
-      <c r="H73" s="29">
+      <c r="H73" s="27">
         <f t="shared" si="7"/>
         <v>2.235624059219626E-2</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="26">
         <f t="shared" si="8"/>
         <v>2.2109101798710729E-2</v>
       </c>
-      <c r="J73" s="28">
+      <c r="J73" s="26">
         <f t="shared" si="9"/>
         <v>0.71891233208467598</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>80</v>
       </c>
@@ -4069,26 +4063,26 @@
       </c>
       <c r="F74" s="18">
         <f t="shared" si="5"/>
-        <v>994222.99926757812</v>
+        <v>994222.99926757813</v>
       </c>
       <c r="G74" s="19">
         <f t="shared" si="6"/>
         <v>13.829541137030976</v>
       </c>
-      <c r="H74" s="29">
+      <c r="H74" s="27">
         <f t="shared" si="7"/>
         <v>2.4659373737280395E-2</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="26">
         <f t="shared" si="8"/>
         <v>2.4359034180315754E-2</v>
       </c>
-      <c r="J74" s="28">
+      <c r="J74" s="26">
         <f t="shared" si="9"/>
         <v>0.70140032201477487</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>81</v>
       </c>
@@ -4106,26 +4100,26 @@
       </c>
       <c r="F75" s="18">
         <f t="shared" si="5"/>
-        <v>923207.35083007812</v>
+        <v>923207.35083007813</v>
       </c>
       <c r="G75" s="19">
         <f t="shared" si="6"/>
         <v>13.162342940479794</v>
       </c>
-      <c r="H75" s="29">
+      <c r="H75" s="27">
         <f t="shared" si="7"/>
         <v>2.6698493570179248E-2</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="26">
         <f t="shared" si="8"/>
         <v>2.6346783071056722E-2</v>
       </c>
-      <c r="J75" s="28">
+      <c r="J75" s="26">
         <f t="shared" si="9"/>
         <v>0.68292067988468219</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>82</v>
       </c>
@@ -4143,26 +4137,26 @@
       </c>
       <c r="F76" s="18">
         <f t="shared" si="5"/>
-        <v>853991.28833007812</v>
+        <v>853991.28833007813</v>
       </c>
       <c r="G76" s="19">
         <f t="shared" si="6"/>
         <v>12.504981750178777</v>
       </c>
-      <c r="H76" s="29">
+      <c r="H76" s="27">
         <f t="shared" si="7"/>
         <v>2.9230802885577428E-2</v>
       </c>
-      <c r="I76" s="28">
+      <c r="I76" s="26">
         <f t="shared" si="8"/>
         <v>2.8809735443013792E-2</v>
       </c>
-      <c r="J76" s="28">
+      <c r="J76" s="26">
         <f t="shared" si="9"/>
         <v>0.66324591576864134</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
@@ -4180,26 +4174,26 @@
       </c>
       <c r="F77" s="18">
         <f t="shared" si="5"/>
-        <v>786682.94458007812</v>
+        <v>786682.94458007813</v>
       </c>
       <c r="G77" s="19">
         <f t="shared" si="6"/>
         <v>11.861101814142092</v>
       </c>
-      <c r="H77" s="29">
+      <c r="H77" s="27">
         <f t="shared" si="7"/>
         <v>3.1806596260081192E-2</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="26">
         <f t="shared" si="8"/>
         <v>3.1308686119994579E-2</v>
       </c>
-      <c r="J77" s="28">
+      <c r="J77" s="26">
         <f t="shared" si="9"/>
         <v>0.6424805575714726</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
@@ -4217,26 +4211,26 @@
       </c>
       <c r="F78" s="18">
         <f t="shared" si="5"/>
-        <v>721396.60083007812</v>
+        <v>721396.60083007813</v>
       </c>
       <c r="G78" s="19">
         <f t="shared" si="6"/>
         <v>11.228299207442198</v>
       </c>
-      <c r="H78" s="29">
+      <c r="H78" s="27">
         <f t="shared" si="7"/>
         <v>3.5091074389092439E-2</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="26">
         <f t="shared" si="8"/>
         <v>3.4485997634778331E-2</v>
       </c>
-      <c r="J78" s="28">
+      <c r="J78" s="26">
         <f t="shared" si="9"/>
         <v>0.62032397458267174</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>85</v>
       </c>
@@ -4254,26 +4248,26 @@
       </c>
       <c r="F79" s="18">
         <f t="shared" si="5"/>
-        <v>658256.35864257812</v>
+        <v>658256.35864257813</v>
       </c>
       <c r="G79" s="19">
         <f t="shared" si="6"/>
         <v>10.611490276347459</v>
       </c>
-      <c r="H79" s="29">
+      <c r="H79" s="27">
         <f t="shared" si="7"/>
         <v>3.8763391731210781E-2</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="26">
         <f t="shared" si="8"/>
         <v>3.8026376299739463E-2</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J79" s="26">
         <f t="shared" si="9"/>
         <v>0.59673530169744105</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>86</v>
       </c>
@@ -4291,26 +4285,26 @@
       </c>
       <c r="F80" s="18">
         <f t="shared" si="5"/>
-        <v>597403.37817382812</v>
+        <v>597403.37817382813</v>
       </c>
       <c r="G80" s="19">
         <f t="shared" si="6"/>
         <v>10.011192722048635</v>
       </c>
-      <c r="H80" s="29">
+      <c r="H80" s="27">
         <f t="shared" si="7"/>
         <v>4.3199045289977069E-2</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="26">
         <f t="shared" si="8"/>
         <v>4.2285694993620233E-2</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J80" s="26">
         <f t="shared" si="9"/>
         <v>0.57150193473793709</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>87</v>
       </c>
@@ -4328,26 +4322,26 @@
       </c>
       <c r="F81" s="18">
         <f t="shared" si="5"/>
-        <v>538991.49926757812</v>
+        <v>538991.49926757813</v>
       </c>
       <c r="G81" s="19">
         <f t="shared" si="6"/>
         <v>9.4311375308312382</v>
       </c>
-      <c r="H81" s="29">
+      <c r="H81" s="27">
         <f t="shared" si="7"/>
         <v>4.7656542546093063E-2</v>
       </c>
-      <c r="I81" s="28">
+      <c r="I81" s="26">
         <f t="shared" si="8"/>
         <v>4.6547397811441807E-2</v>
       </c>
-      <c r="J81" s="28">
+      <c r="J81" s="26">
         <f t="shared" si="9"/>
         <v>0.54490000683168172</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>88</v>
       </c>
@@ -4365,26 +4359,26 @@
       </c>
       <c r="F82" s="18">
         <f t="shared" si="5"/>
-        <v>483171.38598632812</v>
+        <v>483171.38598632813</v>
       </c>
       <c r="G82" s="19">
         <f t="shared" si="6"/>
         <v>8.8671544767303985</v>
       </c>
-      <c r="H82" s="29">
+      <c r="H82" s="27">
         <f t="shared" si="7"/>
         <v>5.2896664322052422E-2</v>
       </c>
-      <c r="I82" s="28">
+      <c r="I82" s="26">
         <f t="shared" si="8"/>
         <v>5.1533684783422191E-2</v>
       </c>
-      <c r="J82" s="28">
+      <c r="J82" s="26">
         <f t="shared" si="9"/>
         <v>0.51681930164113321</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>89</v>
       </c>
@@ -4402,26 +4396,26 @@
       </c>
       <c r="F83" s="18">
         <f t="shared" si="5"/>
-        <v>430085.40551757812</v>
+        <v>430085.40551757813</v>
       </c>
       <c r="G83" s="19">
         <f t="shared" si="6"/>
         <v>8.3217727761024491</v>
       </c>
-      <c r="H83" s="29">
+      <c r="H83" s="27">
         <f t="shared" si="7"/>
         <v>5.8680724743771187E-2</v>
       </c>
-      <c r="I83" s="28">
+      <c r="I83" s="26">
         <f t="shared" si="8"/>
         <v>5.7008086683741258E-2</v>
       </c>
-      <c r="J83" s="28">
+      <c r="J83" s="26">
         <f t="shared" si="9"/>
         <v>0.4873564220933449</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>90</v>
       </c>
@@ -4439,26 +4433,26 @@
       </c>
       <c r="F84" s="18">
         <f t="shared" si="5"/>
-        <v>379876.60473632812</v>
+        <v>379876.60473632813</v>
       </c>
       <c r="G84" s="19">
         <f t="shared" si="6"/>
         <v>7.7946340311428166</v>
       </c>
-      <c r="H84" s="29">
+      <c r="H84" s="27">
         <f t="shared" si="7"/>
         <v>6.4967414643172738E-2</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="26">
         <f t="shared" si="8"/>
         <v>6.2923431878353947E-2</v>
       </c>
-      <c r="J84" s="28">
+      <c r="J84" s="26">
         <f t="shared" si="9"/>
         <v>0.45669028346727603</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>91</v>
       </c>
@@ -4476,26 +4470,26 @@
       </c>
       <c r="F85" s="18">
         <f t="shared" si="5"/>
-        <v>332674.25317382812</v>
+        <v>332674.25317382813</v>
       </c>
       <c r="G85" s="19">
         <f t="shared" si="6"/>
         <v>7.2844586080217937</v>
       </c>
-      <c r="H85" s="29">
+      <c r="H85" s="27">
         <f t="shared" si="7"/>
         <v>7.24429302744172E-2</v>
       </c>
-      <c r="I85" s="28">
+      <c r="I85" s="26">
         <f t="shared" si="8"/>
         <v>6.9910659872426228E-2</v>
       </c>
-      <c r="J85" s="28">
+      <c r="J85" s="26">
         <f t="shared" si="9"/>
         <v>0.4247627643927534</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>92</v>
       </c>
@@ -4513,26 +4507,26 @@
       </c>
       <c r="F86" s="18">
         <f t="shared" si="5"/>
-        <v>288601.58911132812</v>
+        <v>288601.58911132813</v>
       </c>
       <c r="G86" s="19">
         <f t="shared" si="6"/>
         <v>6.7944162609562504</v>
       </c>
-      <c r="H86" s="29">
+      <c r="H86" s="27">
         <f t="shared" si="7"/>
         <v>8.1272316066802491E-2</v>
       </c>
-      <c r="I86" s="28">
+      <c r="I86" s="26">
         <f t="shared" si="8"/>
         <v>7.8098684192375714E-2</v>
       </c>
-      <c r="J86" s="28">
+      <c r="J86" s="26">
         <f t="shared" si="9"/>
         <v>0.39158935139976325</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>93</v>
       </c>
@@ -4550,26 +4544,26 @@
       </c>
       <c r="F87" s="18">
         <f t="shared" si="5"/>
-        <v>247783.97192382812</v>
+        <v>247783.97192382813</v>
       </c>
       <c r="G87" s="19">
         <f t="shared" si="6"/>
         <v>6.3276467214946299</v>
       </c>
-      <c r="H87" s="29">
+      <c r="H87" s="27">
         <f t="shared" si="7"/>
         <v>9.0687728764029543E-2</v>
       </c>
-      <c r="I87" s="28">
+      <c r="I87" s="26">
         <f t="shared" si="8"/>
         <v>8.6753966955586653E-2</v>
       </c>
-      <c r="J87" s="28">
+      <c r="J87" s="26">
         <f t="shared" si="9"/>
         <v>0.35761742174826855</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>94</v>
       </c>
@@ -4587,26 +4581,26 @@
       </c>
       <c r="F88" s="18">
         <f t="shared" si="5"/>
-        <v>210323.62426757812</v>
+        <v>210323.62426757813</v>
       </c>
       <c r="G88" s="19">
         <f t="shared" si="6"/>
         <v>5.8812453044825306</v>
       </c>
-      <c r="H88" s="29">
+      <c r="H88" s="27">
         <f t="shared" si="7"/>
         <v>0.10144629684379323</v>
       </c>
-      <c r="I88" s="28">
+      <c r="I88" s="26">
         <f t="shared" si="8"/>
         <v>9.6549021311614358E-2</v>
       </c>
-      <c r="J88" s="28">
+      <c r="J88" s="26">
         <f t="shared" si="9"/>
         <v>0.32308980967449041</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>95</v>
       </c>
@@ -4624,26 +4618,26 @@
       </c>
       <c r="F89" s="18">
         <f t="shared" si="5"/>
-        <v>176288.25708007812</v>
+        <v>176288.25708007813</v>
       </c>
       <c r="G89" s="19">
         <f t="shared" si="6"/>
         <v>5.4563224185631389</v>
       </c>
-      <c r="H89" s="29">
+      <c r="H89" s="27">
         <f t="shared" si="7"/>
         <v>0.11245905580287022</v>
       </c>
-      <c r="I89" s="28">
+      <c r="I89" s="26">
         <f t="shared" si="8"/>
         <v>0.10647217643697011</v>
       </c>
-      <c r="J89" s="28">
+      <c r="J89" s="26">
         <f t="shared" si="9"/>
         <v>0.28868973445384094</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>96</v>
       </c>
@@ -4661,26 +4655,26 @@
       </c>
       <c r="F90" s="18">
         <f t="shared" si="5"/>
-        <v>145699.27270507812</v>
+        <v>145699.27270507813</v>
       </c>
       <c r="G90" s="19">
         <f t="shared" si="6"/>
         <v>5.0469143814342248</v>
       </c>
-      <c r="H90" s="29">
+      <c r="H90" s="27">
         <f t="shared" si="7"/>
         <v>0.12729460647708055</v>
       </c>
-      <c r="I90" s="28">
+      <c r="I90" s="26">
         <f t="shared" si="8"/>
         <v>0.1196774533895662</v>
       </c>
-      <c r="J90" s="28">
+      <c r="J90" s="26">
         <f t="shared" si="9"/>
         <v>0.25414008221469514</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>97</v>
       </c>
@@ -4698,26 +4692,26 @@
       </c>
       <c r="F91" s="18">
         <f t="shared" si="5"/>
-        <v>118557.77661132812</v>
+        <v>118557.77661132813</v>
       </c>
       <c r="G91" s="19">
         <f t="shared" si="6"/>
         <v>4.6650551991530875</v>
       </c>
-      <c r="H91" s="29">
+      <c r="H91" s="27">
         <f t="shared" si="7"/>
         <v>0.1437702060029962</v>
       </c>
-      <c r="I91" s="28">
+      <c r="I91" s="26">
         <f t="shared" si="8"/>
         <v>0.13412837981935871</v>
       </c>
-      <c r="J91" s="28">
+      <c r="J91" s="26">
         <f t="shared" si="9"/>
         <v>0.22005268474007947</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>98</v>
       </c>
@@ -4741,20 +4735,20 @@
         <f t="shared" si="6"/>
         <v>4.3102455577054508</v>
       </c>
-      <c r="H92" s="29">
+      <c r="H92" s="27">
         <f t="shared" si="7"/>
         <v>0.16198243061879974</v>
       </c>
-      <c r="I92" s="28">
+      <c r="I92" s="26">
         <f t="shared" si="8"/>
         <v>0.14984620607631338</v>
       </c>
-      <c r="J92" s="28">
+      <c r="J92" s="26">
         <f t="shared" si="9"/>
         <v>0.1870786247948715</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>99</v>
       </c>
@@ -4778,20 +4772,20 @@
         <f t="shared" si="6"/>
         <v>3.9818307998974363</v>
       </c>
-      <c r="H93" s="29">
+      <c r="H93" s="27">
         <f t="shared" si="7"/>
         <v>0.18201130071047747</v>
       </c>
-      <c r="I93" s="28">
+      <c r="I93" s="26">
         <f t="shared" si="8"/>
         <v>0.16682891493259647</v>
       </c>
-      <c r="J93" s="28">
+      <c r="J93" s="26">
         <f t="shared" si="9"/>
         <v>0.15586850081326076</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>100</v>
       </c>
@@ -4815,20 +4809,20 @@
         <f t="shared" si="6"/>
         <v>3.6790107981122411</v>
       </c>
-      <c r="H94" s="29">
+      <c r="H94" s="27">
         <f t="shared" si="7"/>
         <v>0.20391407891123098</v>
       </c>
-      <c r="I94" s="28">
+      <c r="I94" s="26">
         <f t="shared" si="8"/>
         <v>0.18504720712529552</v>
       </c>
-      <c r="J94" s="28">
+      <c r="J94" s="26">
         <f t="shared" si="9"/>
         <v>0.12702547005896</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>101</v>
       </c>
@@ -4852,20 +4846,20 @@
         <f t="shared" si="6"/>
         <v>3.4008527331073033</v>
       </c>
-      <c r="H95" s="29">
+      <c r="H95" s="27">
         <f t="shared" si="7"/>
         <v>0.22771880731501673</v>
       </c>
-      <c r="I95" s="28">
+      <c r="I95" s="26">
         <f t="shared" si="8"/>
         <v>0.20444126044760175</v>
       </c>
-      <c r="J95" s="28">
+      <c r="J95" s="26">
         <f t="shared" si="9"/>
         <v>0.10105622285115712</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>102</v>
       </c>
@@ -4889,20 +4883,20 @@
         <f t="shared" si="6"/>
         <v>3.1463084500046383</v>
       </c>
-      <c r="H96" s="29">
+      <c r="H96" s="27">
         <f t="shared" si="7"/>
         <v>0.2534179379148061</v>
       </c>
-      <c r="I96" s="28">
+      <c r="I96" s="26">
         <f t="shared" si="8"/>
         <v>0.22491870535438185</v>
       </c>
-      <c r="J96" s="28">
+      <c r="J96" s="26">
         <f t="shared" si="9"/>
         <v>7.8326788039470963E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>103</v>
       </c>
@@ -4926,20 +4920,20 @@
         <f t="shared" si="6"/>
         <v>2.914233576642336</v>
       </c>
-      <c r="H97" s="29">
+      <c r="H97" s="27">
         <f t="shared" si="7"/>
         <v>0.28096209729302535</v>
       </c>
-      <c r="I97" s="28">
+      <c r="I97" s="26">
         <f t="shared" si="8"/>
         <v>0.24635402737802914</v>
       </c>
-      <c r="J97" s="28">
+      <c r="J97" s="26">
         <f t="shared" si="9"/>
         <v>5.9030668354362048E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>104</v>
       </c>
@@ -4963,20 +4957,20 @@
         <f t="shared" si="6"/>
         <v>2.7034053314434265</v>
       </c>
-      <c r="H98" s="29">
+      <c r="H98" s="27">
         <f t="shared" si="7"/>
         <v>0.31025599168195916</v>
       </c>
-      <c r="I98" s="28">
+      <c r="I98" s="26">
         <f t="shared" si="8"/>
         <v>0.26859014412856663</v>
       </c>
-      <c r="J98" s="28">
+      <c r="J98" s="26">
         <f t="shared" si="9"/>
         <v>4.317561263305833E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>105</v>
       </c>
@@ -5000,20 +4994,20 @@
         <f t="shared" si="6"/>
         <v>2.5125452254418725</v>
       </c>
-      <c r="H99" s="29">
+      <c r="H99" s="27">
         <f t="shared" si="7"/>
         <v>0.34115499498202967</v>
       </c>
-      <c r="I99" s="28">
+      <c r="I99" s="26">
         <f t="shared" si="8"/>
         <v>0.29144161383014144</v>
       </c>
-      <c r="J99" s="28">
+      <c r="J99" s="26">
         <f t="shared" si="9"/>
         <v>3.0592442409174768E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>106</v>
       </c>
@@ -5037,20 +5031,20 @@
         <f t="shared" si="6"/>
         <v>2.340337881428189</v>
       </c>
-      <c r="H100" s="29">
+      <c r="H100" s="27">
         <f t="shared" si="7"/>
         <v>0.37346507224286923</v>
       </c>
-      <c r="I100" s="28">
+      <c r="I100" s="26">
         <f t="shared" si="8"/>
         <v>0.31470030169181723</v>
       </c>
-      <c r="J100" s="28">
+      <c r="J100" s="26">
         <f t="shared" si="9"/>
         <v>2.0964991553517921E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>107</v>
       </c>
@@ -5074,20 +5068,20 @@
         <f t="shared" si="6"/>
         <v>2.1854496595713906</v>
       </c>
-      <c r="H101" s="29">
+      <c r="H101" s="27">
         <f t="shared" si="7"/>
         <v>0.40694510780328624</v>
       </c>
-      <c r="I101" s="28">
+      <c r="I101" s="26">
         <f t="shared" si="8"/>
         <v>0.33814240346429358</v>
       </c>
-      <c r="J101" s="28">
+      <c r="J101" s="26">
         <f t="shared" si="9"/>
         <v>1.3875838921002756E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>108</v>
       </c>
@@ -5111,20 +5105,20 @@
         <f t="shared" si="6"/>
         <v>2.0465443662362133</v>
       </c>
-      <c r="H102" s="29">
+      <c r="H102" s="27">
         <f t="shared" si="7"/>
         <v>0.44131248014717772</v>
       </c>
-      <c r="I102" s="28">
+      <c r="I102" s="26">
         <f t="shared" si="8"/>
         <v>0.36153707765136017</v>
       </c>
-      <c r="J102" s="28">
+      <c r="J102" s="26">
         <f t="shared" si="9"/>
         <v>8.8592086675424158E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>109</v>
       </c>
@@ -5147,48 +5141,48 @@
         <f t="shared" si="6"/>
         <v>1.9222931200981941</v>
       </c>
-      <c r="H103" s="30">
+      <c r="H103" s="28">
         <f t="shared" si="7"/>
         <v>0.5200733502184498</v>
       </c>
-      <c r="I103" s="28">
+      <c r="I103" s="26">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J103" s="28">
+      <c r="J103" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
     </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
     </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
     </row>
-    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -5209,19 +5203,19 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="2" width="14.69921875" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="53.85" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5242,18 +5236,18 @@
       <c r="G1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:10" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="38"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5275,14 +5269,14 @@
       <c r="H2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -5319,7 +5313,7 @@
         <v>0.9881177575683594</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -5356,7 +5350,7 @@
         <v>0.9875033690499101</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -5393,7 +5387,7 @@
         <v>0.98710264688564475</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -5430,7 +5424,7 @@
         <v>0.98676040201584458</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -5467,7 +5461,7 @@
         <v>0.98653216097011909</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -5504,7 +5498,7 @@
         <v>0.98630470543653248</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -5541,7 +5535,7 @@
         <v>0.98609685108291423</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -5578,7 +5572,7 @@
         <v>0.9859071133288797</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -5615,7 +5609,7 @@
         <v>0.98574068117641778</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
@@ -5652,7 +5646,7 @@
         <v>0.98560036249019578</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -5689,7 +5683,7 @@
         <v>0.98547669010374195</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -5726,7 +5720,7 @@
         <v>0.98533895503656344</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -5763,7 +5757,7 @@
         <v>0.98513134414949544</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -5800,7 +5794,7 @@
         <v>0.98478424963554789</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -5837,7 +5831,7 @@
         <v>0.98424628224649791</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -5874,7 +5868,7 @@
         <v>0.98350073441442876</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -5911,7 +5905,7 @@
         <v>0.98255186689064533</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
@@ -5948,7 +5942,7 @@
         <v>0.98140026640576505</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -5959,7 +5953,7 @@
         <v>98140.03125</v>
       </c>
       <c r="D21" s="9">
-        <v>134.41165161132812</v>
+        <v>134.41165161132813</v>
       </c>
       <c r="E21" s="9">
         <v>98072.828125</v>
@@ -5985,7 +5979,7 @@
         <v>0.98005614995278201</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
@@ -6022,7 +6016,7 @@
         <v>0.97853303521024015</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
@@ -6059,7 +6053,7 @@
         <v>0.97683415690407593</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
@@ -6096,7 +6090,7 @@
         <v>0.97496928153730411</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
@@ -6133,7 +6127,7 @@
         <v>0.97296962016129107</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -6170,7 +6164,7 @@
         <v>0.97087425713147013</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -6207,7 +6201,7 @@
         <v>0.96871367354996218</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
@@ -6244,7 +6238,7 @@
         <v>0.9664985673449602</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
@@ -6255,7 +6249,7 @@
         <v>96649.859375</v>
       </c>
       <c r="D29" s="9">
-        <v>226.71829223632812</v>
+        <v>226.71829223632813</v>
       </c>
       <c r="E29" s="9">
         <v>96536.5</v>
@@ -6281,7 +6275,7 @@
         <v>0.96423138448453705</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
@@ -6318,7 +6312,7 @@
         <v>0.96192038706966188</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
@@ -6355,7 +6349,7 @@
         <v>0.95956909023387005</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
@@ -6392,7 +6386,7 @@
         <v>0.95717601704458721</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
@@ -6403,7 +6397,7 @@
         <v>95717.6015625</v>
       </c>
       <c r="D33" s="9">
-        <v>243.36245727539062</v>
+        <v>243.36245727539063</v>
       </c>
       <c r="E33" s="9">
         <v>95595.921875</v>
@@ -6429,7 +6423,7 @@
         <v>0.95474239246822401</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>40</v>
       </c>
@@ -6466,7 +6460,7 @@
         <v>0.95226229565130227</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>41</v>
       </c>
@@ -6503,7 +6497,7 @@
         <v>0.94971510324456043</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>42</v>
       </c>
@@ -6540,7 +6534,7 @@
         <v>0.94707623803539531</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>43</v>
       </c>
@@ -6577,7 +6571,7 @@
         <v>0.9443310155182113</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>44</v>
       </c>
@@ -6614,7 +6608,7 @@
         <v>0.94146545423216721</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>45</v>
       </c>
@@ -6651,7 +6645,7 @@
         <v>0.93847935040003161</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>46</v>
       </c>
@@ -6688,7 +6682,7 @@
         <v>0.93538970291107271</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>47</v>
       </c>
@@ -6725,7 +6719,7 @@
         <v>0.93221814241448431</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>48</v>
       </c>
@@ -6762,7 +6756,7 @@
         <v>0.92897119374033843</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>49</v>
       </c>
@@ -6799,7 +6793,7 @@
         <v>0.92563309119588355</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>50</v>
       </c>
@@ -6810,7 +6804,7 @@
         <v>92563.3203125</v>
       </c>
       <c r="D44" s="9">
-        <v>346.40066528320312</v>
+        <v>346.40066528320313</v>
       </c>
       <c r="E44" s="9">
         <v>92390.125</v>
@@ -6836,7 +6830,7 @@
         <v>0.92216908496192507</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>51</v>
       </c>
@@ -6873,7 +6867,7 @@
         <v>0.91854277109593996</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>52</v>
       </c>
@@ -6910,7 +6904,7 @@
         <v>0.91471664152791243</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>53</v>
       </c>
@@ -6921,7 +6915,7 @@
         <v>91471.6796875</v>
       </c>
       <c r="D47" s="9">
-        <v>405.59036254882812</v>
+        <v>405.59036254882813</v>
       </c>
       <c r="E47" s="9">
         <v>91268.8828125</v>
@@ -6947,7 +6941,7 @@
         <v>0.91066073859124153</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>54</v>
       </c>
@@ -6984,7 +6978,7 @@
         <v>0.90635285036866475</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>55</v>
       </c>
@@ -7021,7 +7015,7 @@
         <v>0.90176593812597761</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>56</v>
       </c>
@@ -7058,7 +7052,7 @@
         <v>0.89686250696536085</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>57</v>
       </c>
@@ -7095,7 +7089,7 @@
         <v>0.89159437124557339</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>58</v>
       </c>
@@ -7132,7 +7126,7 @@
         <v>0.88590935761736145</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>59</v>
       </c>
@@ -7169,7 +7163,7 @@
         <v>0.87979251494415367</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>60</v>
       </c>
@@ -7206,7 +7200,7 @@
         <v>0.87320738294516875</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>61</v>
       </c>
@@ -7243,7 +7237,7 @@
         <v>0.86605389635527685</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>62</v>
       </c>
@@ -7280,7 +7274,7 @@
         <v>0.8582161072348633</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>63</v>
       </c>
@@ -7317,7 +7311,7 @@
         <v>0.84961658517749417</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>64</v>
       </c>
@@ -7354,7 +7348,7 @@
         <v>0.84024888681423759</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>65</v>
       </c>
@@ -7391,7 +7385,7 @@
         <v>0.83013103792717946</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>66</v>
       </c>
@@ -7428,7 +7422,7 @@
         <v>0.81923794051516319</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>67</v>
       </c>
@@ -7465,7 +7459,7 @@
         <v>0.80752413110442367</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -7502,7 +7496,7 @@
         <v>0.7949418021512048</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>69</v>
       </c>
@@ -7539,7 +7533,7 @@
         <v>0.78144427276474371</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>70</v>
       </c>
@@ -7576,7 +7570,7 @@
         <v>0.76703190260394638</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>71</v>
       </c>
@@ -7613,7 +7607,7 @@
         <v>0.75175285087593602</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>72</v>
       </c>
@@ -7650,7 +7644,7 @@
         <v>0.73569961319936317</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>73</v>
       </c>
@@ -7687,7 +7681,7 @@
         <v>0.71895480898227093</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>74</v>
       </c>
@@ -7724,7 +7718,7 @@
         <v>0.70149956202364983</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>75</v>
       </c>
@@ -7761,7 +7755,7 @@
         <v>0.68330902736284238</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
@@ -7798,7 +7792,7 @@
         <v>0.66448345704182943</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>77</v>
       </c>
@@ -7835,7 +7829,7 @@
         <v>0.64518594897753978</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>78</v>
       </c>
@@ -7872,7 +7866,7 @@
         <v>0.62550737923298472</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>79</v>
       </c>
@@ -7909,7 +7903,7 @@
         <v>0.60558906152223901</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>80</v>
       </c>
@@ -7946,7 +7940,7 @@
         <v>0.58491328541433962</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>81</v>
       </c>
@@ -7983,7 +7977,7 @@
         <v>0.56379027294856709</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>82</v>
       </c>
@@ -8020,7 +8014,7 @@
         <v>0.54177809584212544</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
@@ -8057,7 +8051,7 @@
         <v>0.51909212946044747</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
@@ -8094,7 +8088,7 @@
         <v>0.49578137034806724</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>85</v>
       </c>
@@ -8131,7 +8125,7 @@
         <v>0.47160128664984557</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>86</v>
       </c>
@@ -8168,7 +8162,7 @@
         <v>0.44700363012168953</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>87</v>
       </c>
@@ -8205,7 +8199,7 @@
         <v>0.42142714813571441</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>88</v>
       </c>
@@ -8242,7 +8236,7 @@
         <v>0.39528253143718212</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>89</v>
       </c>
@@ -8279,7 +8273,7 @@
         <v>0.36893533484208479</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>90</v>
       </c>
@@ -8316,7 +8310,7 @@
         <v>0.34233039501708773</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>91</v>
       </c>
@@ -8353,7 +8347,7 @@
         <v>0.31504965315111044</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>92</v>
       </c>
@@ -8390,7 +8384,7 @@
         <v>0.28744959024229122</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>93</v>
       </c>
@@ -8427,7 +8421,7 @@
         <v>0.26042073157317225</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>94</v>
       </c>
@@ -8464,7 +8458,7 @@
         <v>0.23414281225174968</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>95</v>
       </c>
@@ -8501,7 +8495,7 @@
         <v>0.2083340473421329</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>96</v>
       </c>
@@ -8538,7 +8532,7 @@
         <v>0.18328696176215281</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>97</v>
       </c>
@@ -8575,7 +8569,7 @@
         <v>0.15929136016104481</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>98</v>
       </c>
@@ -8612,7 +8606,7 @@
         <v>0.13662194221569646</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>99</v>
       </c>
@@ -8649,7 +8643,7 @@
         <v>0.11552530571667553</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>100</v>
       </c>
@@ -8686,7 +8680,7 @@
         <v>9.6207267300195742E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>101</v>
       </c>
@@ -8723,7 +8717,7 @@
         <v>7.8821740197756673E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>102</v>
       </c>
@@ -8760,7 +8754,7 @@
         <v>6.3462321561241597E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>103</v>
       </c>
@@ -8797,7 +8791,7 @@
         <v>5.0157656393997982E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>104</v>
       </c>
@@ -8834,7 +8828,7 @@
         <v>3.8871313466172841E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>105</v>
       </c>
@@ -8871,7 +8865,7 @@
         <v>2.9506403146023884E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>106</v>
       </c>
@@ -8908,7 +8902,7 @@
         <v>2.1914596083328776E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>107</v>
       </c>
@@ -8945,7 +8939,7 @@
         <v>1.5908622928592738E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>108</v>
       </c>
@@ -8956,7 +8950,7 @@
         <v>1590.862548828125</v>
       </c>
       <c r="D102" s="9">
-        <v>463.17556762695312</v>
+        <v>463.17556762695313</v>
       </c>
       <c r="E102" s="9">
         <v>1359.2747802734375</v>
@@ -8982,7 +8976,7 @@
         <v>1.1276867997569979E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>109</v>
       </c>
@@ -9018,28 +9012,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -9058,20 +9052,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503DFB8-CC62-EA46-BE25-828F6F492ECF}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="2" width="14.69921875" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="67" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -9092,18 +9086,18 @@
       <c r="G1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:10" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="38"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9125,14 +9119,14 @@
       <c r="H2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -9150,7 +9144,7 @@
       </c>
       <c r="F3" s="22">
         <f t="shared" ref="F3:F66" si="0">F4+E3</f>
-        <v>8123535.1684570312</v>
+        <v>8123535.1684570313</v>
       </c>
       <c r="G3" s="24">
         <f>F3/C3</f>
@@ -9169,7 +9163,7 @@
         <v>0.99562419219970699</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -9187,7 +9181,7 @@
       </c>
       <c r="F4" s="22">
         <f t="shared" si="0"/>
-        <v>8023922.4262695312</v>
+        <v>8023922.4262695313</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" ref="G4:G67" si="1">F4/C4</f>
@@ -9206,7 +9200,7 @@
         <v>0.99532992873022863</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -9224,7 +9218,7 @@
       </c>
       <c r="F5" s="22">
         <f t="shared" si="0"/>
-        <v>7924374.7231445312</v>
+        <v>7924374.7231445313</v>
       </c>
       <c r="G5" s="24">
         <f t="shared" si="1"/>
@@ -9243,7 +9237,7 @@
         <v>0.99515030522053816</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -9261,7 +9255,7 @@
       </c>
       <c r="F6" s="22">
         <f t="shared" si="0"/>
-        <v>7824850.7075195312</v>
+        <v>7824850.7075195313</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="1"/>
@@ -9280,7 +9274,7 @@
         <v>0.99500009554680169</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -9298,7 +9292,7 @@
       </c>
       <c r="F7" s="22">
         <f t="shared" si="0"/>
-        <v>7725343.1918945312</v>
+        <v>7725343.1918945313</v>
       </c>
       <c r="G7" s="24">
         <f t="shared" si="1"/>
@@ -9317,7 +9311,7 @@
         <v>0.99488512350651959</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -9335,7 +9329,7 @@
       </c>
       <c r="F8" s="22">
         <f t="shared" si="0"/>
-        <v>7625848.9340820312</v>
+        <v>7625848.9340820313</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
@@ -9354,7 +9348,7 @@
         <v>0.99477375635208665</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -9372,7 +9366,7 @@
       </c>
       <c r="F9" s="22">
         <f t="shared" si="0"/>
-        <v>7526365.9965820312</v>
+        <v>7526365.9965820313</v>
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -9391,7 +9385,7 @@
         <v>0.99467217482563541</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -9409,7 +9403,7 @@
       </c>
       <c r="F10" s="22">
         <f t="shared" si="0"/>
-        <v>7426893.6997070312</v>
+        <v>7426893.6997070313</v>
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
@@ -9428,7 +9422,7 @@
         <v>0.99457779765246046</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -9446,7 +9440,7 @@
       </c>
       <c r="F11" s="22">
         <f t="shared" si="0"/>
-        <v>7327431.1997070312</v>
+        <v>7327431.1997070313</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
@@ -9465,7 +9459,7 @@
         <v>0.99448917023908023</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
@@ -9483,7 +9477,7 @@
       </c>
       <c r="F12" s="22">
         <f t="shared" si="0"/>
-        <v>7227977.8481445312</v>
+        <v>7227977.8481445313</v>
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
@@ -9502,7 +9496,7 @@
         <v>0.99440455889410173</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -9520,7 +9514,7 @@
       </c>
       <c r="F13" s="22">
         <f t="shared" si="0"/>
-        <v>7128533.1606445312</v>
+        <v>7128533.1606445313</v>
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
@@ -9539,7 +9533,7 @@
         <v>0.99432050935880245</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -9557,7 +9551,7 @@
       </c>
       <c r="F14" s="22">
         <f t="shared" si="0"/>
-        <v>7029096.9028320312</v>
+        <v>7029096.9028320313</v>
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
@@ -9576,7 +9570,7 @@
         <v>0.99423064042565457</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -9594,7 +9588,7 @@
       </c>
       <c r="F15" s="22">
         <f t="shared" si="0"/>
-        <v>6929669.3403320312</v>
+        <v>6929669.3403320313</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="1"/>
@@ -9613,7 +9607,7 @@
         <v>0.99412515596575401</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -9631,7 +9625,7 @@
       </c>
       <c r="F16" s="22">
         <f t="shared" si="0"/>
-        <v>6830251.5434570312</v>
+        <v>6830251.5434570313</v>
       </c>
       <c r="G16" s="24">
         <f t="shared" si="1"/>
@@ -9650,7 +9644,7 @@
         <v>0.99399234175961571</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -9668,7 +9662,7 @@
       </c>
       <c r="F17" s="22">
         <f t="shared" si="0"/>
-        <v>6730845.6606445312</v>
+        <v>6730845.6606445313</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" si="1"/>
@@ -9687,7 +9681,7 @@
         <v>0.99382299952244069</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -9705,7 +9699,7 @@
       </c>
       <c r="F18" s="22">
         <f t="shared" si="0"/>
-        <v>6631454.8872070312</v>
+        <v>6631454.8872070313</v>
       </c>
       <c r="G18" s="24">
         <f t="shared" si="1"/>
@@ -9724,7 +9718,7 @@
         <v>0.99361212625291662</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -9742,7 +9736,7 @@
       </c>
       <c r="F19" s="22">
         <f t="shared" si="0"/>
-        <v>6532083.1215820312</v>
+        <v>6532083.1215820313</v>
       </c>
       <c r="G19" s="24">
         <f t="shared" si="1"/>
@@ -9761,7 +9755,7 @@
         <v>0.99335871247688068</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
@@ -9779,7 +9773,7 @@
       </c>
       <c r="F20" s="22">
         <f t="shared" si="0"/>
-        <v>6432734.5747070312</v>
+        <v>6432734.5747070313</v>
       </c>
       <c r="G20" s="24">
         <f t="shared" si="1"/>
@@ -9798,7 +9792,7 @@
         <v>0.99306266695583689</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -9816,7 +9810,7 @@
       </c>
       <c r="F21" s="22">
         <f t="shared" si="0"/>
-        <v>6333413.4965820312</v>
+        <v>6333413.4965820313</v>
       </c>
       <c r="G21" s="24">
         <f t="shared" si="1"/>
@@ -9835,7 +9829,7 @@
         <v>0.99272584938989739</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
@@ -9853,7 +9847,7 @@
       </c>
       <c r="F22" s="22">
         <f t="shared" si="0"/>
-        <v>6234124.0590820312</v>
+        <v>6234124.0590820313</v>
       </c>
       <c r="G22" s="24">
         <f t="shared" si="1"/>
@@ -9872,7 +9866,7 @@
         <v>0.99234968803870138</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
@@ -9890,7 +9884,7 @@
       </c>
       <c r="F23" s="22">
         <f t="shared" si="0"/>
-        <v>6134870.2778320312</v>
+        <v>6134870.2778320313</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="1"/>
@@ -9909,7 +9903,7 @@
         <v>0.99193250118167042</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
@@ -9927,7 +9921,7 @@
       </c>
       <c r="F24" s="22">
         <f t="shared" si="0"/>
-        <v>6035656.1606445312</v>
+        <v>6035656.1606445313</v>
       </c>
       <c r="G24" s="24">
         <f t="shared" si="1"/>
@@ -9946,7 +9940,7 @@
         <v>0.99147268226287044</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
@@ -9964,7 +9958,7 @@
       </c>
       <c r="F25" s="22">
         <f t="shared" si="0"/>
-        <v>5936485.8950195312</v>
+        <v>5936485.8950195313</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="1"/>
@@ -9983,7 +9977,7 @@
         <v>0.99097252031711325</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -10001,7 +9995,7 @@
       </c>
       <c r="F26" s="22">
         <f t="shared" si="0"/>
-        <v>5837363.6293945312</v>
+        <v>5837363.6293945313</v>
       </c>
       <c r="G26" s="24">
         <f t="shared" si="1"/>
@@ -10020,7 +10014,7 @@
         <v>0.99043574979483673</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -10038,7 +10032,7 @@
       </c>
       <c r="F27" s="22">
         <f t="shared" si="0"/>
-        <v>5738293.2075195312</v>
+        <v>5738293.2075195313</v>
       </c>
       <c r="G27" s="24">
         <f t="shared" si="1"/>
@@ -10057,7 +10051,7 @@
         <v>0.9898651029547445</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
@@ -10075,7 +10069,7 @@
       </c>
       <c r="F28" s="22">
         <f t="shared" si="0"/>
-        <v>5639278.1606445312</v>
+        <v>5639278.1606445313</v>
       </c>
       <c r="G28" s="24">
         <f t="shared" si="1"/>
@@ -10094,7 +10088,7 @@
         <v>0.98926241572370499</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
@@ -10112,7 +10106,7 @@
       </c>
       <c r="F29" s="22">
         <f t="shared" si="0"/>
-        <v>5540321.7778320312</v>
+        <v>5540321.7778320313</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="1"/>
@@ -10131,7 +10125,7 @@
         <v>0.98862637444183044</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
@@ -10149,7 +10143,7 @@
       </c>
       <c r="F30" s="22">
         <f t="shared" si="0"/>
-        <v>5441427.3247070312</v>
+        <v>5441427.3247070313</v>
       </c>
       <c r="G30" s="24">
         <f t="shared" si="1"/>
@@ -10168,7 +10162,7 @@
         <v>0.98795244133500759</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
@@ -10186,7 +10180,7 @@
       </c>
       <c r="F31" s="22">
         <f t="shared" si="0"/>
-        <v>5342598.3715820312</v>
+        <v>5342598.3715820313</v>
       </c>
       <c r="G31" s="24">
         <f t="shared" si="1"/>
@@ -10205,7 +10199,7 @@
         <v>0.98723329615564837</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
@@ -10223,7 +10217,7 @@
       </c>
       <c r="F32" s="22">
         <f t="shared" si="0"/>
-        <v>5243839.0747070312</v>
+        <v>5243839.0747070313</v>
       </c>
       <c r="G32" s="24">
         <f t="shared" si="1"/>
@@ -10242,7 +10236,7 @@
         <v>0.9864625034956187</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
@@ -10260,7 +10254,7 @@
       </c>
       <c r="F33" s="22">
         <f t="shared" si="0"/>
-        <v>5145154.2700195312</v>
+        <v>5145154.2700195313</v>
       </c>
       <c r="G33" s="24">
         <f t="shared" si="1"/>
@@ -10279,7 +10273,7 @@
         <v>0.98563493953685355</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>40</v>
       </c>
@@ -10297,7 +10291,7 @@
       </c>
       <c r="F34" s="22">
         <f t="shared" si="0"/>
-        <v>5046549.3793945312</v>
+        <v>5046549.3793945313</v>
       </c>
       <c r="G34" s="24">
         <f t="shared" si="1"/>
@@ -10316,7 +10310,7 @@
         <v>0.984750236597285</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>41</v>
       </c>
@@ -10334,7 +10328,7 @@
       </c>
       <c r="F35" s="22">
         <f t="shared" si="0"/>
-        <v>4948030.1059570312</v>
+        <v>4948030.1059570313</v>
       </c>
       <c r="G35" s="24">
         <f t="shared" si="1"/>
@@ -10353,7 +10347,7 @@
         <v>0.9838121389809541</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>42</v>
       </c>
@@ -10371,7 +10365,7 @@
       </c>
       <c r="F36" s="22">
         <f t="shared" si="0"/>
-        <v>4849601.9731445312</v>
+        <v>4849601.9731445313</v>
       </c>
       <c r="G36" s="24">
         <f t="shared" si="1"/>
@@ -10390,7 +10384,7 @@
         <v>0.98282818616572165</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>43</v>
       </c>
@@ -10408,7 +10402,7 @@
       </c>
       <c r="F37" s="22">
         <f t="shared" si="0"/>
-        <v>4751269.9418945312</v>
+        <v>4751269.9418945313</v>
       </c>
       <c r="G37" s="24">
         <f t="shared" si="1"/>
@@ -10427,7 +10421,7 @@
         <v>0.98180353820882149</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>44</v>
       </c>
@@ -10445,7 +10439,7 @@
       </c>
       <c r="F38" s="22">
         <f t="shared" si="0"/>
-        <v>4653038.3481445312</v>
+        <v>4653038.3481445313</v>
       </c>
       <c r="G38" s="24">
         <f t="shared" si="1"/>
@@ -10464,7 +10458,7 @@
         <v>0.98073386931758466</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>45</v>
       </c>
@@ -10482,7 +10476,7 @@
       </c>
       <c r="F39" s="22">
         <f t="shared" si="0"/>
-        <v>4554911.4653320312</v>
+        <v>4554911.4653320313</v>
       </c>
       <c r="G39" s="24">
         <f t="shared" si="1"/>
@@ -10501,7 +10495,7 @@
         <v>0.97961299954551806</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>46</v>
       </c>
@@ -10519,7 +10513,7 @@
       </c>
       <c r="F40" s="22">
         <f t="shared" si="0"/>
-        <v>4456894.1059570312</v>
+        <v>4456894.1059570313</v>
       </c>
       <c r="G40" s="24">
         <f t="shared" si="1"/>
@@ -10538,7 +10532,7 @@
         <v>0.9784407776344819</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>47</v>
       </c>
@@ -10556,7 +10550,7 @@
       </c>
       <c r="F41" s="22">
         <f t="shared" si="0"/>
-        <v>4358991.4028320312</v>
+        <v>4358991.4028320313</v>
       </c>
       <c r="G41" s="24">
         <f t="shared" si="1"/>
@@ -10575,7 +10569,7 @@
         <v>0.97721597314710029</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>48</v>
       </c>
@@ -10593,7 +10587,7 @@
       </c>
       <c r="F42" s="22">
         <f t="shared" si="0"/>
-        <v>4261208.5512695312</v>
+        <v>4261208.5512695313</v>
       </c>
       <c r="G42" s="24">
         <f t="shared" si="1"/>
@@ -10612,7 +10606,7 @@
         <v>0.97593241739730696</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>49</v>
       </c>
@@ -10630,7 +10624,7 @@
       </c>
       <c r="F43" s="22">
         <f t="shared" si="0"/>
-        <v>4163551.1215820312</v>
+        <v>4163551.1215820313</v>
       </c>
       <c r="G43" s="24">
         <f t="shared" si="1"/>
@@ -10649,7 +10643,7 @@
         <v>0.97457763037208323</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>50</v>
       </c>
@@ -10660,14 +10654,14 @@
         <v>97457.7734375</v>
       </c>
       <c r="D44" s="9">
-        <v>144.27481079101562</v>
+        <v>144.27481079101563</v>
       </c>
       <c r="E44" s="9">
         <v>97385.640625</v>
       </c>
       <c r="F44" s="22">
         <f t="shared" si="0"/>
-        <v>4066025.6059570312</v>
+        <v>4066025.6059570313</v>
       </c>
       <c r="G44" s="24">
         <f t="shared" si="1"/>
@@ -10686,7 +10680,7 @@
         <v>0.97313488241813728</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>51</v>
       </c>
@@ -10697,14 +10691,14 @@
         <v>97313.5</v>
       </c>
       <c r="D45" s="9">
-        <v>154.59475708007812</v>
+        <v>154.59475708007813</v>
       </c>
       <c r="E45" s="9">
         <v>97236.203125</v>
       </c>
       <c r="F45" s="22">
         <f t="shared" si="0"/>
-        <v>3968639.9653320312</v>
+        <v>3968639.9653320313</v>
       </c>
       <c r="G45" s="24">
         <f t="shared" si="1"/>
@@ -10723,7 +10717,7 @@
         <v>0.97158893503413013</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>52</v>
       </c>
@@ -10741,7 +10735,7 @@
       </c>
       <c r="F46" s="22">
         <f t="shared" si="0"/>
-        <v>3871403.7622070312</v>
+        <v>3871403.7622070313</v>
       </c>
       <c r="G46" s="24">
         <f t="shared" si="1"/>
@@ -10760,7 +10754,7 @@
         <v>0.96992818863945995</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>53</v>
       </c>
@@ -10778,7 +10772,7 @@
       </c>
       <c r="F47" s="22">
         <f t="shared" si="0"/>
-        <v>3774327.8950195312</v>
+        <v>3774327.8950195313</v>
       </c>
       <c r="G47" s="24">
         <f t="shared" si="1"/>
@@ -10797,7 +10791,7 @@
         <v>0.96814376528689083</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>54</v>
       </c>
@@ -10815,7 +10809,7 @@
       </c>
       <c r="F48" s="22">
         <f t="shared" si="0"/>
-        <v>3677424.2856445312</v>
+        <v>3677424.2856445313</v>
       </c>
       <c r="G48" s="24">
         <f t="shared" si="1"/>
@@ -10834,7 +10828,7 @@
         <v>0.96622811340317105</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>55</v>
       </c>
@@ -10852,7 +10846,7 @@
       </c>
       <c r="F49" s="22">
         <f t="shared" si="0"/>
-        <v>3580705.6840820312</v>
+        <v>3580705.6840820313</v>
       </c>
       <c r="G49" s="24">
         <f t="shared" si="1"/>
@@ -10871,7 +10865,7 @@
         <v>0.96416720645953258</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>56</v>
       </c>
@@ -10889,7 +10883,7 @@
       </c>
       <c r="F50" s="22">
         <f t="shared" si="0"/>
-        <v>3484185.9106445312</v>
+        <v>3484185.9106445313</v>
       </c>
       <c r="G50" s="24">
         <f t="shared" si="1"/>
@@ -10908,7 +10902,7 @@
         <v>0.9619394748152299</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>57</v>
       </c>
@@ -10926,7 +10920,7 @@
       </c>
       <c r="F51" s="22">
         <f t="shared" si="0"/>
-        <v>3387880.5668945312</v>
+        <v>3387880.5668945313</v>
       </c>
       <c r="G51" s="24">
         <f t="shared" si="1"/>
@@ -10945,7 +10939,7 @@
         <v>0.95951544663712951</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>58</v>
       </c>
@@ -10963,7 +10957,7 @@
       </c>
       <c r="F52" s="22">
         <f t="shared" si="0"/>
-        <v>3291807.8168945312</v>
+        <v>3291807.8168945313</v>
       </c>
       <c r="G52" s="24">
         <f t="shared" si="1"/>
@@ -10982,7 +10976,7 @@
         <v>0.95686561881733767</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>59</v>
       </c>
@@ -11000,7 +10994,7 @@
       </c>
       <c r="F53" s="22">
         <f t="shared" si="0"/>
-        <v>3195988.7622070312</v>
+        <v>3195988.7622070313</v>
       </c>
       <c r="G53" s="24">
         <f t="shared" si="1"/>
@@ -11019,7 +11013,7 @@
         <v>0.95397732812555069</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>60</v>
       </c>
@@ -11030,14 +11024,14 @@
         <v>95397.734375</v>
       </c>
       <c r="D54" s="9">
-        <v>314.03286743164062</v>
+        <v>314.03286743164063</v>
       </c>
       <c r="E54" s="9">
         <v>95240.71875</v>
       </c>
       <c r="F54" s="22">
         <f t="shared" si="0"/>
-        <v>3100446.6137695312</v>
+        <v>3100446.6137695313</v>
       </c>
       <c r="G54" s="24">
         <f t="shared" si="1"/>
@@ -11056,7 +11050,7 @@
         <v>0.95083699950266731</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>61</v>
       </c>
@@ -11074,7 +11068,7 @@
       </c>
       <c r="F55" s="22">
         <f t="shared" si="0"/>
-        <v>3005205.8950195312</v>
+        <v>3005205.8950195313</v>
       </c>
       <c r="G55" s="24">
         <f t="shared" si="1"/>
@@ -11093,7 +11087,7 @@
         <v>0.94741412150416027</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>62</v>
       </c>
@@ -11111,7 +11105,7 @@
       </c>
       <c r="F56" s="22">
         <f t="shared" si="0"/>
-        <v>2910293.3325195312</v>
+        <v>2910293.3325195313</v>
       </c>
       <c r="G56" s="24">
         <f t="shared" si="1"/>
@@ -11130,7 +11124,7 @@
         <v>0.94368061846671736</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>63</v>
       </c>
@@ -11148,7 +11142,7 @@
       </c>
       <c r="F57" s="22">
         <f t="shared" si="0"/>
-        <v>2815738.5981445312</v>
+        <v>2815738.5981445313</v>
       </c>
       <c r="G57" s="24">
         <f t="shared" si="1"/>
@@ -11167,7 +11161,7 @@
         <v>0.93962198629266758</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>64</v>
       </c>
@@ -11185,7 +11179,7 @@
       </c>
       <c r="F58" s="22">
         <f t="shared" si="0"/>
-        <v>2721573.4653320312</v>
+        <v>2721573.4653320313</v>
       </c>
       <c r="G58" s="24">
         <f t="shared" si="1"/>
@@ -11204,7 +11198,7 @@
         <v>0.93523049968637728</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>65</v>
       </c>
@@ -11222,7 +11216,7 @@
       </c>
       <c r="F59" s="22">
         <f t="shared" si="0"/>
-        <v>2627830.8403320312</v>
+        <v>2627830.8403320313</v>
       </c>
       <c r="G59" s="24">
         <f t="shared" si="1"/>
@@ -11241,7 +11235,7 @@
         <v>0.9305079285135297</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>66</v>
       </c>
@@ -11259,7 +11253,7 @@
       </c>
       <c r="F60" s="22">
         <f t="shared" si="0"/>
-        <v>2534543.9184570312</v>
+        <v>2534543.9184570313</v>
       </c>
       <c r="G60" s="24">
         <f t="shared" si="1"/>
@@ -11278,7 +11272,7 @@
         <v>0.92545980861463006</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>67</v>
       </c>
@@ -11296,7 +11290,7 @@
       </c>
       <c r="F61" s="22">
         <f t="shared" si="0"/>
-        <v>2441745.5278320312</v>
+        <v>2441745.5278320313</v>
       </c>
       <c r="G61" s="24">
         <f t="shared" si="1"/>
@@ -11315,7 +11309,7 @@
         <v>0.92008685105494414</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -11333,7 +11327,7 @@
       </c>
       <c r="F62" s="22">
         <f t="shared" si="0"/>
-        <v>2349468.1918945312</v>
+        <v>2349468.1918945313</v>
       </c>
       <c r="G62" s="24">
         <f t="shared" si="1"/>
@@ -11352,7 +11346,7 @@
         <v>0.91437639710199492</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>69</v>
       </c>
@@ -11370,7 +11364,7 @@
       </c>
       <c r="F63" s="22">
         <f t="shared" si="0"/>
-        <v>2257745.0278320312</v>
+        <v>2257745.0278320313</v>
       </c>
       <c r="G63" s="24">
         <f t="shared" si="1"/>
@@ -11389,7 +11383,7 @@
         <v>0.90830148566374869</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>70</v>
       </c>
@@ -11407,7 +11401,7 @@
       </c>
       <c r="F64" s="22">
         <f t="shared" si="0"/>
-        <v>2166611.1372070312</v>
+        <v>2166611.1372070313</v>
       </c>
       <c r="G64" s="24">
         <f t="shared" si="1"/>
@@ -11426,7 +11420,7 @@
         <v>0.90183095220730225</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>71</v>
       </c>
@@ -11444,7 +11438,7 @@
       </c>
       <c r="F65" s="22">
         <f t="shared" si="0"/>
-        <v>2076104.5122070312</v>
+        <v>2076104.5122070313</v>
       </c>
       <c r="G65" s="24">
         <f t="shared" si="1"/>
@@ -11463,7 +11457,7 @@
         <v>0.89493480036143946</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>72</v>
       </c>
@@ -11481,7 +11475,7 @@
       </c>
       <c r="F66" s="22">
         <f t="shared" si="0"/>
-        <v>1986266.2309570312</v>
+        <v>1986266.2309570313</v>
       </c>
       <c r="G66" s="24">
         <f t="shared" si="1"/>
@@ -11500,7 +11494,7 @@
         <v>0.88758147732211767</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>73</v>
       </c>
@@ -11518,7 +11512,7 @@
       </c>
       <c r="F67" s="22">
         <f t="shared" ref="F67:F101" si="5">F68+E67</f>
-        <v>1897140.4184570312</v>
+        <v>1897140.4184570313</v>
       </c>
       <c r="G67" s="24">
         <f t="shared" si="1"/>
@@ -11537,7 +11531,7 @@
         <v>0.87973376551208016</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>74</v>
       </c>
@@ -11555,7 +11549,7 @@
       </c>
       <c r="F68" s="22">
         <f t="shared" si="5"/>
-        <v>1808774.6684570312</v>
+        <v>1808774.6684570313</v>
       </c>
       <c r="G68" s="24">
         <f t="shared" ref="G68:G103" si="6">F68/C68</f>
@@ -11574,7 +11568,7 @@
         <v>0.87136284482129167</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>75</v>
       </c>
@@ -11592,7 +11586,7 @@
       </c>
       <c r="F69" s="22">
         <f t="shared" si="5"/>
-        <v>1721219.8481445312</v>
+        <v>1721219.8481445313</v>
       </c>
       <c r="G69" s="24">
         <f t="shared" si="6"/>
@@ -11611,7 +11605,7 @@
         <v>0.86239421331341304</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
@@ -11629,7 +11623,7 @@
       </c>
       <c r="F70" s="22">
         <f t="shared" si="5"/>
-        <v>1634532.0043945312</v>
+        <v>1634532.0043945313</v>
       </c>
       <c r="G70" s="24">
         <f t="shared" si="6"/>
@@ -11648,7 +11642,7 @@
         <v>0.85274612534200389</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>77</v>
       </c>
@@ -11666,7 +11660,7 @@
       </c>
       <c r="F71" s="22">
         <f t="shared" si="5"/>
-        <v>1548774.9965820312</v>
+        <v>1548774.9965820313</v>
       </c>
       <c r="G71" s="24">
         <f t="shared" si="6"/>
@@ -11685,7 +11679,7 @@
         <v>0.8422741257036277</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>78</v>
       </c>
@@ -11703,7 +11697,7 @@
       </c>
       <c r="F72" s="22">
         <f t="shared" si="5"/>
-        <v>1464023.9965820312</v>
+        <v>1464023.9965820313</v>
       </c>
       <c r="G72" s="24">
         <f t="shared" si="6"/>
@@ -11722,7 +11716,7 @@
         <v>0.83087250391745604</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>79</v>
       </c>
@@ -11740,7 +11734,7 @@
       </c>
       <c r="F73" s="22">
         <f t="shared" si="5"/>
-        <v>1380366.6840820312</v>
+        <v>1380366.6840820313</v>
       </c>
       <c r="G73" s="24">
         <f t="shared" si="6"/>
@@ -11759,7 +11753,7 @@
         <v>0.81855275300741892</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>80</v>
       </c>
@@ -11777,7 +11771,7 @@
       </c>
       <c r="F74" s="22">
         <f t="shared" si="5"/>
-        <v>1297895.4340820312</v>
+        <v>1297895.4340820313</v>
       </c>
       <c r="G74" s="24">
         <f t="shared" si="6"/>
@@ -11796,7 +11790,7 @@
         <v>0.80498896592985114</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>81</v>
       </c>
@@ -11814,7 +11808,7 @@
       </c>
       <c r="F75" s="22">
         <f t="shared" si="5"/>
-        <v>1216718.3637695312</v>
+        <v>1216718.3637695313</v>
       </c>
       <c r="G75" s="24">
         <f t="shared" si="6"/>
@@ -11833,7 +11827,7 @@
         <v>0.79030971659076066</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>82</v>
       </c>
@@ -11851,7 +11845,7 @@
       </c>
       <c r="F76" s="22">
         <f t="shared" si="5"/>
-        <v>1136953.4418945312</v>
+        <v>1136953.4418945313</v>
       </c>
       <c r="G76" s="24">
         <f t="shared" si="6"/>
@@ -11870,7 +11864,7 @@
         <v>0.77446701546688346</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
@@ -11888,7 +11882,7 @@
       </c>
       <c r="F77" s="22">
         <f t="shared" si="5"/>
-        <v>1058714.6137695312</v>
+        <v>1058714.6137695313</v>
       </c>
       <c r="G77" s="24">
         <f t="shared" si="6"/>
@@ -11907,7 +11901,7 @@
         <v>0.75747689397714246</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
@@ -11944,7 +11938,7 @@
         <v>0.73900823247822423</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>85</v>
       </c>
@@ -11981,7 +11975,7 @@
         <v>0.71903593254027076</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>86</v>
       </c>
@@ -12018,7 +12012,7 @@
         <v>0.69748980740134414</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>87</v>
       </c>
@@ -12055,7 +12049,7 @@
         <v>0.67407781607203987</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>88</v>
       </c>
@@ -12092,7 +12086,7 @@
         <v>0.64898565238638273</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>89</v>
       </c>
@@ -12129,7 +12123,7 @@
         <v>0.6218916237333505</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>90</v>
       </c>
@@ -12166,7 +12160,7 @@
         <v>0.59301960673036713</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>91</v>
       </c>
@@ -12203,7 +12197,7 @@
         <v>0.56214332838632863</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>92</v>
       </c>
@@ -12240,7 +12234,7 @@
         <v>0.52885724906350473</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>93</v>
       </c>
@@ -12277,7 +12271,7 @@
         <v>0.49376305552511562</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>94</v>
       </c>
@@ -12314,7 +12308,7 @@
         <v>0.45732414087118928</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>95</v>
       </c>
@@ -12351,7 +12345,7 @@
         <v>0.41991823189429528</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>96</v>
       </c>
@@ -12388,7 +12382,7 @@
         <v>0.38103952561736931</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>97</v>
       </c>
@@ -12425,7 +12419,7 @@
         <v>0.34120204653635683</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>98</v>
       </c>
@@ -12462,7 +12456,7 @@
         <v>0.30102847784199022</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>99</v>
       </c>
@@ -12499,7 +12493,7 @@
         <v>0.26123066747349527</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>100</v>
       </c>
@@ -12536,7 +12530,7 @@
         <v>0.22257662843422307</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>101</v>
       </c>
@@ -12573,7 +12567,7 @@
         <v>0.18584459763236977</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>102</v>
       </c>
@@ -12610,7 +12604,7 @@
         <v>0.15176724399005537</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>103</v>
       </c>
@@ -12647,7 +12641,7 @@
         <v>0.1209719255123978</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>104</v>
       </c>
@@ -12684,7 +12678,7 @@
         <v>9.3925265237608885E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>105</v>
       </c>
@@ -12721,7 +12715,7 @@
         <v>7.0891380622810848E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>106</v>
       </c>
@@ -12758,7 +12752,7 @@
         <v>5.1911988684656081E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>107</v>
       </c>
@@ -12795,7 +12789,7 @@
         <v>3.6813251511547386E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>108</v>
       </c>
@@ -12832,7 +12826,7 @@
         <v>2.5239031365206988E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>109</v>
       </c>
@@ -12868,14 +12862,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -12898,16 +12892,16 @@
       <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="2" width="14.69921875" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="67" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -12922,24 +12916,24 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:10" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="38"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12952,23 +12946,23 @@
       <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -12986,7 +12980,7 @@
       </c>
       <c r="F3" s="22">
         <f t="shared" ref="F3:F66" si="0">F4+E3</f>
-        <v>7845886.6313476562</v>
+        <v>7845886.6313476563</v>
       </c>
       <c r="G3" s="24">
         <f>F3/C3</f>
@@ -13005,7 +12999,7 @@
         <v>0.99032567932128901</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -13023,7 +13017,7 @@
       </c>
       <c r="F4" s="22">
         <f t="shared" si="0"/>
-        <v>7746729.2641601562</v>
+        <v>7746729.2641601563</v>
       </c>
       <c r="G4" s="24">
         <f t="shared" ref="G4:G67" si="1">F4/C4</f>
@@ -13042,7 +13036,7 @@
         <v>0.98974360501734782</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -13060,7 +13054,7 @@
       </c>
       <c r="F5" s="22">
         <f t="shared" si="0"/>
-        <v>7647725.7954101562</v>
+        <v>7647725.7954101563</v>
       </c>
       <c r="G5" s="24">
         <f t="shared" si="1"/>
@@ -13079,7 +13073,7 @@
         <v>0.98939251809165907</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -13097,7 +13091,7 @@
       </c>
       <c r="F6" s="22">
         <f t="shared" si="0"/>
-        <v>7548768.9907226562</v>
+        <v>7548768.9907226563</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="1"/>
@@ -13116,7 +13110,7 @@
         <v>0.98918126188891298</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -13134,7 +13128,7 @@
       </c>
       <c r="F7" s="22">
         <f t="shared" si="0"/>
-        <v>7449840.3032226562</v>
+        <v>7449840.3032226563</v>
       </c>
       <c r="G7" s="24">
         <f t="shared" si="1"/>
@@ -13153,7 +13147,7 @@
         <v>0.98893586099942787</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -13171,7 +13165,7 @@
       </c>
       <c r="F8" s="22">
         <f t="shared" si="0"/>
-        <v>7350934.4438476562</v>
+        <v>7350934.4438476563</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
@@ -13190,7 +13184,7 @@
         <v>0.98874111398983067</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -13208,7 +13202,7 @@
       </c>
       <c r="F9" s="22">
         <f t="shared" si="0"/>
-        <v>7252050.6000976562</v>
+        <v>7252050.6000976563</v>
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -13227,7 +13221,7 @@
         <v>0.98857223646104408</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -13245,7 +13239,7 @@
       </c>
       <c r="F10" s="22">
         <f t="shared" si="0"/>
-        <v>7153184.9360351562</v>
+        <v>7153184.9360351563</v>
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
@@ -13264,7 +13258,7 @@
         <v>0.98842257835541114</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -13282,7 +13276,7 @@
       </c>
       <c r="F11" s="22">
         <f t="shared" si="0"/>
-        <v>7054335.2016601562</v>
+        <v>7054335.2016601563</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
@@ -13301,7 +13295,7 @@
         <v>0.98828554474850916</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
@@ -13319,7 +13313,7 @@
       </c>
       <c r="F12" s="22">
         <f t="shared" si="0"/>
-        <v>6955499.8032226562</v>
+        <v>6955499.8032226563</v>
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
@@ -13338,7 +13332,7 @@
         <v>0.98815456234898669</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -13356,7 +13350,7 @@
       </c>
       <c r="F13" s="22">
         <f t="shared" si="0"/>
-        <v>6856677.8032226562</v>
+        <v>6856677.8032226563</v>
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
@@ -13375,7 +13369,7 @@
         <v>0.98802304830017873</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -13393,7 +13387,7 @@
       </c>
       <c r="F14" s="22">
         <f t="shared" si="0"/>
-        <v>6757868.9282226562</v>
+        <v>6757868.9282226563</v>
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
@@ -13412,7 +13406,7 @@
         <v>0.98788441700239582</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -13430,7 +13424,7 @@
       </c>
       <c r="F15" s="22">
         <f t="shared" si="0"/>
-        <v>6659073.5610351562</v>
+        <v>6659073.5610351563</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="1"/>
@@ -13449,7 +13443,7 @@
         <v>0.98773214748946725</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -13467,7 +13461,7 @@
       </c>
       <c r="F16" s="22">
         <f t="shared" si="0"/>
-        <v>6560292.7329101562</v>
+        <v>6560292.7329101563</v>
       </c>
       <c r="G16" s="24">
         <f t="shared" si="1"/>
@@ -13486,7 +13480,7 @@
         <v>0.98755986635107496</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -13504,7 +13498,7 @@
       </c>
       <c r="F17" s="22">
         <f t="shared" si="0"/>
-        <v>6461528.1391601562</v>
+        <v>6461528.1391601563</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" si="1"/>
@@ -13523,7 +13517,7 @@
         <v>0.98736130732934935</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -13541,7 +13535,7 @@
       </c>
       <c r="F18" s="22">
         <f t="shared" si="0"/>
-        <v>6362782.0844726562</v>
+        <v>6362782.0844726563</v>
       </c>
       <c r="G18" s="24">
         <f t="shared" si="1"/>
@@ -13560,7 +13554,7 @@
         <v>0.98713306146648727</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -13578,7 +13572,7 @@
       </c>
       <c r="F19" s="22">
         <f t="shared" si="0"/>
-        <v>6264057.3735351562</v>
+        <v>6264057.3735351563</v>
       </c>
       <c r="G19" s="24">
         <f t="shared" si="1"/>
@@ -13597,7 +13591,7 @@
         <v>0.98686946744377391</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
@@ -13615,7 +13609,7 @@
       </c>
       <c r="F20" s="22">
         <f t="shared" si="0"/>
-        <v>6165357.2563476562</v>
+        <v>6165357.2563476563</v>
       </c>
       <c r="G20" s="24">
         <f t="shared" si="1"/>
@@ -13634,7 +13628,7 @@
         <v>0.98656010160821483</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -13652,7 +13646,7 @@
       </c>
       <c r="F21" s="22">
         <f t="shared" si="0"/>
-        <v>6066685.7875976562</v>
+        <v>6066685.7875976563</v>
       </c>
       <c r="G21" s="24">
         <f t="shared" si="1"/>
@@ -13671,7 +13665,7 @@
         <v>0.98619330324585253</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
@@ -13689,7 +13683,7 @@
       </c>
       <c r="F22" s="22">
         <f t="shared" si="0"/>
-        <v>5968048.1313476562</v>
+        <v>5968048.1313476563</v>
       </c>
       <c r="G22" s="24">
         <f t="shared" si="1"/>
@@ -13708,7 +13702,7 @@
         <v>0.98576141145548479</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
@@ -13726,7 +13720,7 @@
       </c>
       <c r="F23" s="22">
         <f t="shared" si="0"/>
-        <v>5869450.4047851562</v>
+        <v>5869450.4047851563</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="1"/>
@@ -13745,7 +13739,7 @@
         <v>0.98526068047901294</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
@@ -13763,7 +13757,7 @@
       </c>
       <c r="F24" s="22">
         <f t="shared" si="0"/>
-        <v>5770899.3110351562</v>
+        <v>5770899.3110351563</v>
       </c>
       <c r="G24" s="24">
         <f t="shared" si="1"/>
@@ -13782,7 +13776,7 @@
         <v>0.98469309202236999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
@@ -13800,7 +13794,7 @@
       </c>
       <c r="F25" s="22">
         <f t="shared" si="0"/>
-        <v>5672401.6235351562</v>
+        <v>5672401.6235351563</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="1"/>
@@ -13819,7 +13813,7 @@
         <v>0.98406535079028046</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -13837,7 +13831,7 @@
       </c>
       <c r="F26" s="22">
         <f t="shared" si="0"/>
-        <v>5573963.7016601562</v>
+        <v>5573963.7016601563</v>
       </c>
       <c r="G26" s="24">
         <f t="shared" si="1"/>
@@ -13856,7 +13850,7 @@
         <v>0.98338814197791924</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -13874,7 +13868,7 @@
       </c>
       <c r="F27" s="22">
         <f t="shared" si="0"/>
-        <v>5475591.0297851562</v>
+        <v>5475591.0297851563</v>
       </c>
       <c r="G27" s="24">
         <f t="shared" si="1"/>
@@ -13893,7 +13887,7 @@
         <v>0.98266968096698004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
@@ -13911,7 +13905,7 @@
       </c>
       <c r="F28" s="22">
         <f t="shared" si="0"/>
-        <v>5377288.1391601562</v>
+        <v>5377288.1391601563</v>
       </c>
       <c r="G28" s="24">
         <f t="shared" si="1"/>
@@ -13930,7 +13924,7 @@
         <v>0.98191142863742631</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
@@ -13948,7 +13942,7 @@
       </c>
       <c r="F29" s="22">
         <f t="shared" si="0"/>
-        <v>5279059.0844726562</v>
+        <v>5279059.0844726563</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="1"/>
@@ -13967,7 +13961,7 @@
         <v>0.98111152566508708</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
@@ -13985,7 +13979,7 @@
       </c>
       <c r="F30" s="22">
         <f t="shared" si="0"/>
-        <v>5180907.9438476562</v>
+        <v>5180907.9438476563</v>
       </c>
       <c r="G30" s="24">
         <f t="shared" si="1"/>
@@ -14004,7 +13998,7 @@
         <v>0.98026895482884624</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
@@ -14022,7 +14016,7 @@
       </c>
       <c r="F31" s="22">
         <f t="shared" si="0"/>
-        <v>5082838.9282226562</v>
+        <v>5082838.9282226563</v>
       </c>
       <c r="G31" s="24">
         <f t="shared" si="1"/>
@@ -14041,7 +14035,7 @@
         <v>0.97937903115498381</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
@@ -14059,7 +14053,7 @@
       </c>
       <c r="F32" s="22">
         <f t="shared" si="0"/>
-        <v>4984856.5375976562</v>
+        <v>4984856.5375976563</v>
       </c>
       <c r="G32" s="24">
         <f t="shared" si="1"/>
@@ -14078,7 +14072,7 @@
         <v>0.97843420025353078</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
@@ -14096,7 +14090,7 @@
       </c>
       <c r="F33" s="22">
         <f t="shared" si="0"/>
-        <v>4886965.8813476562</v>
+        <v>4886965.8813476563</v>
       </c>
       <c r="G33" s="24">
         <f t="shared" si="1"/>
@@ -14115,7 +14109,7 @@
         <v>0.97742598234235567</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>40</v>
       </c>
@@ -14133,7 +14127,7 @@
       </c>
       <c r="F34" s="22">
         <f t="shared" si="0"/>
-        <v>4789172.8813476562</v>
+        <v>4789172.8813476563</v>
       </c>
       <c r="G34" s="24">
         <f t="shared" si="1"/>
@@ -14152,7 +14146,7 @@
         <v>0.97634641327732419</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>41</v>
       </c>
@@ -14170,7 +14164,7 @@
       </c>
       <c r="F35" s="22">
         <f t="shared" si="0"/>
-        <v>4691484.2641601562</v>
+        <v>4691484.2641601563</v>
       </c>
       <c r="G35" s="24">
         <f t="shared" si="1"/>
@@ -14189,7 +14183,7 @@
         <v>0.97518853981012799</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>42</v>
       </c>
@@ -14207,7 +14201,7 @@
       </c>
       <c r="F36" s="22">
         <f t="shared" si="0"/>
-        <v>4593907.5141601562</v>
+        <v>4593907.5141601563</v>
       </c>
       <c r="G36" s="24">
         <f t="shared" si="1"/>
@@ -14226,7 +14220,7 @@
         <v>0.97395065747046794</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>43</v>
       </c>
@@ -14244,7 +14238,7 @@
       </c>
       <c r="F37" s="22">
         <f t="shared" si="0"/>
-        <v>4496450.5610351562</v>
+        <v>4496450.5610351563</v>
       </c>
       <c r="G37" s="24">
         <f t="shared" si="1"/>
@@ -14263,7 +14257,7 @@
         <v>0.97263335212869884</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>44</v>
       </c>
@@ -14281,7 +14275,7 @@
       </c>
       <c r="F38" s="22">
         <f t="shared" si="0"/>
-        <v>4399121.3657226562</v>
+        <v>4399121.3657226563</v>
       </c>
       <c r="G38" s="24">
         <f t="shared" si="1"/>
@@ -14300,7 +14294,7 @@
         <v>0.97123253278223221</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>45</v>
       </c>
@@ -14318,7 +14312,7 @@
       </c>
       <c r="F39" s="22">
         <f t="shared" si="0"/>
-        <v>4301928.0766601562</v>
+        <v>4301928.0766601563</v>
       </c>
       <c r="G39" s="24">
         <f t="shared" si="1"/>
@@ -14337,7 +14331,7 @@
         <v>0.96974096519648667</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>46</v>
       </c>
@@ -14355,7 +14349,7 @@
       </c>
       <c r="F40" s="22">
         <f t="shared" si="0"/>
-        <v>4204879.4047851562</v>
+        <v>4204879.4047851563</v>
       </c>
       <c r="G40" s="24">
         <f t="shared" si="1"/>
@@ -14374,7 +14368,7 @@
         <v>0.9681530237143664</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>47</v>
       </c>
@@ -14392,7 +14386,7 @@
       </c>
       <c r="F41" s="22">
         <f t="shared" si="0"/>
-        <v>4107984.7094726562</v>
+        <v>4107984.7094726563</v>
       </c>
       <c r="G41" s="24">
         <f t="shared" si="1"/>
@@ -14411,7 +14405,7 @@
         <v>0.96645829873411959</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>48</v>
       </c>
@@ -14429,7 +14423,7 @@
       </c>
       <c r="F42" s="22">
         <f t="shared" si="0"/>
-        <v>4011254.1469726562</v>
+        <v>4011254.1469726563</v>
       </c>
       <c r="G42" s="24">
         <f t="shared" si="1"/>
@@ -14448,7 +14442,7 @@
         <v>0.9646416866101909</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>49</v>
       </c>
@@ -14466,7 +14460,7 @@
       </c>
       <c r="F43" s="22">
         <f t="shared" si="0"/>
-        <v>3914699.1469726562</v>
+        <v>3914699.1469726563</v>
       </c>
       <c r="G43" s="24">
         <f t="shared" si="1"/>
@@ -14485,7 +14479,7 @@
         <v>0.96268047512143484</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>50</v>
       </c>
@@ -14503,7 +14497,7 @@
       </c>
       <c r="F44" s="22">
         <f t="shared" si="0"/>
-        <v>3818333.0454101562</v>
+        <v>3818333.0454101563</v>
       </c>
       <c r="G44" s="24">
         <f t="shared" si="1"/>
@@ -14522,7 +14516,7 @@
         <v>0.96055726082374782</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>51</v>
       </c>
@@ -14540,7 +14534,7 @@
       </c>
       <c r="F45" s="22">
         <f t="shared" si="0"/>
-        <v>3722171.1704101562</v>
+        <v>3722171.1704101563</v>
       </c>
       <c r="G45" s="24">
         <f t="shared" si="1"/>
@@ -14559,7 +14553,7 @@
         <v>0.95826823095541214</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>52</v>
       </c>
@@ -14577,7 +14571,7 @@
       </c>
       <c r="F46" s="22">
         <f t="shared" si="0"/>
-        <v>3626229.9047851562</v>
+        <v>3626229.9047851563</v>
       </c>
       <c r="G46" s="24">
         <f t="shared" si="1"/>
@@ -14596,7 +14590,7 @@
         <v>0.95582153863776298</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>53</v>
       </c>
@@ -14614,7 +14608,7 @@
       </c>
       <c r="F47" s="22">
         <f t="shared" si="0"/>
-        <v>3530525.4282226562</v>
+        <v>3530525.4282226563</v>
       </c>
       <c r="G47" s="24">
         <f t="shared" si="1"/>
@@ -14633,7 +14627,7 @@
         <v>0.95322097705930586</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>54</v>
       </c>
@@ -14651,7 +14645,7 @@
       </c>
       <c r="F48" s="22">
         <f t="shared" si="0"/>
-        <v>3435073.3188476562</v>
+        <v>3435073.3188476563</v>
       </c>
       <c r="G48" s="24">
         <f t="shared" si="1"/>
@@ -14670,7 +14664,7 @@
         <v>0.95046103317608377</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>55</v>
       </c>
@@ -14688,7 +14682,7 @@
       </c>
       <c r="F49" s="22">
         <f t="shared" si="0"/>
-        <v>3339889.2250976562</v>
+        <v>3339889.2250976563</v>
       </c>
       <c r="G49" s="24">
         <f t="shared" si="1"/>
@@ -14707,7 +14701,7 @@
         <v>0.94751546403191822</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>56</v>
       </c>
@@ -14718,14 +14712,14 @@
         <v>94751.5390625</v>
       </c>
       <c r="D50" s="9">
-        <v>317.13809204101562</v>
+        <v>317.13809204101563</v>
       </c>
       <c r="E50" s="9">
         <v>94592.96875</v>
       </c>
       <c r="F50" s="22">
         <f t="shared" si="0"/>
-        <v>3244990.4125976562</v>
+        <v>3244990.4125976563</v>
       </c>
       <c r="G50" s="24">
         <f t="shared" si="1"/>
@@ -14744,7 +14738,7 @@
         <v>0.94434408286581151</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>57</v>
       </c>
@@ -14755,14 +14749,14 @@
         <v>94434.3984375</v>
       </c>
       <c r="D51" s="9">
-        <v>345.14297485351562</v>
+        <v>345.14297485351563</v>
       </c>
       <c r="E51" s="9">
         <v>94261.828125</v>
       </c>
       <c r="F51" s="22">
         <f t="shared" si="0"/>
-        <v>3150397.4438476562</v>
+        <v>3150397.4438476563</v>
       </c>
       <c r="G51" s="24">
         <f t="shared" si="1"/>
@@ -14781,7 +14775,7 @@
         <v>0.94089265275730782</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>58</v>
       </c>
@@ -14792,14 +14786,14 @@
         <v>94089.2578125</v>
       </c>
       <c r="D52" s="9">
-        <v>378.06753540039062</v>
+        <v>378.06753540039063</v>
       </c>
       <c r="E52" s="9">
         <v>93900.21875</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" si="0"/>
-        <v>3056135.6157226562</v>
+        <v>3056135.6157226563</v>
       </c>
       <c r="G52" s="24">
         <f t="shared" si="1"/>
@@ -14818,7 +14812,7 @@
         <v>0.93711197710341787</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>59</v>
       </c>
@@ -14836,7 +14830,7 @@
       </c>
       <c r="F53" s="22">
         <f t="shared" si="0"/>
-        <v>2962235.3969726562</v>
+        <v>2962235.3969726563</v>
       </c>
       <c r="G53" s="24">
         <f t="shared" si="1"/>
@@ -14855,7 +14849,7 @@
         <v>0.93298864291392403</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>60</v>
       </c>
@@ -14866,14 +14860,14 @@
         <v>93298.8515625</v>
       </c>
       <c r="D54" s="9">
-        <v>448.05117797851562</v>
+        <v>448.05117797851563</v>
       </c>
       <c r="E54" s="9">
         <v>93074.828125</v>
       </c>
       <c r="F54" s="22">
         <f t="shared" si="0"/>
-        <v>2868730.3813476562</v>
+        <v>2868730.3813476563</v>
       </c>
       <c r="G54" s="24">
         <f t="shared" si="1"/>
@@ -14892,7 +14886,7 @@
         <v>0.92850813052285641</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>61</v>
       </c>
@@ -14910,7 +14904,7 @@
       </c>
       <c r="F55" s="22">
         <f t="shared" si="0"/>
-        <v>2775655.5532226562</v>
+        <v>2775655.5532226563</v>
       </c>
       <c r="G55" s="24">
         <f t="shared" si="1"/>
@@ -14929,7 +14923,7 @@
         <v>0.9236188504961983</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>62</v>
       </c>
@@ -14947,7 +14941,7 @@
       </c>
       <c r="F56" s="22">
         <f t="shared" si="0"/>
-        <v>2683049.2250976562</v>
+        <v>2683049.2250976563</v>
       </c>
       <c r="G56" s="24">
         <f t="shared" si="1"/>
@@ -14966,7 +14960,7 @@
         <v>0.91826496884556197</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>63</v>
       </c>
@@ -14984,7 +14978,7 @@
       </c>
       <c r="F57" s="22">
         <f t="shared" si="0"/>
-        <v>2590955.0532226562</v>
+        <v>2590955.0532226563</v>
       </c>
       <c r="G57" s="24">
         <f t="shared" si="1"/>
@@ -15003,7 +14997,7 @@
         <v>0.91241145192512429</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>64</v>
       </c>
@@ -15021,7 +15015,7 @@
       </c>
       <c r="F58" s="22">
         <f t="shared" si="0"/>
-        <v>2499421.2563476562</v>
+        <v>2499421.2563476563</v>
       </c>
       <c r="G58" s="24">
         <f t="shared" si="1"/>
@@ -15040,7 +15034,7 @@
         <v>0.90604806733813725</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>65</v>
       </c>
@@ -15058,7 +15052,7 @@
       </c>
       <c r="F59" s="22">
         <f t="shared" si="0"/>
-        <v>2408498.3032226562</v>
+        <v>2408498.3032226563</v>
       </c>
       <c r="G59" s="24">
         <f t="shared" si="1"/>
@@ -15077,7 +15071,7 @@
         <v>0.89918371419269205</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>66</v>
       </c>
@@ -15095,7 +15089,7 @@
       </c>
       <c r="F60" s="22">
         <f t="shared" si="0"/>
-        <v>2318236.7329101562</v>
+        <v>2318236.7329101563</v>
       </c>
       <c r="G60" s="24">
         <f t="shared" si="1"/>
@@ -15114,7 +15108,7 @@
         <v>0.89182482401781593</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>67</v>
       </c>
@@ -15132,7 +15126,7 @@
       </c>
       <c r="F61" s="22">
         <f t="shared" si="0"/>
-        <v>2228686.3266601562</v>
+        <v>2228686.3266601563</v>
       </c>
       <c r="G61" s="24">
         <f t="shared" si="1"/>
@@ -15151,7 +15145,7 @@
         <v>0.88397431370551749</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -15169,7 +15163,7 @@
       </c>
       <c r="F62" s="22">
         <f t="shared" si="0"/>
-        <v>2139896.3891601562</v>
+        <v>2139896.3891601563</v>
       </c>
       <c r="G62" s="24">
         <f t="shared" si="1"/>
@@ -15188,7 +15182,7 @@
         <v>0.87562413127887351</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>69</v>
       </c>
@@ -15206,7 +15200,7 @@
       </c>
       <c r="F63" s="22">
         <f t="shared" si="0"/>
-        <v>2051916.4907226562</v>
+        <v>2051916.4907226563</v>
       </c>
       <c r="G63" s="24">
         <f t="shared" si="1"/>
@@ -15225,7 +15219,7 @@
         <v>0.86675754635862567</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>70</v>
       </c>
@@ -15243,7 +15237,7 @@
       </c>
       <c r="F64" s="22">
         <f t="shared" si="0"/>
-        <v>1964797.4282226562</v>
+        <v>1964797.4282226563</v>
       </c>
       <c r="G64" s="24">
         <f t="shared" si="1"/>
@@ -15262,7 +15256,7 @@
         <v>0.85735781027467473</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>71</v>
       </c>
@@ -15280,7 +15274,7 @@
       </c>
       <c r="F65" s="22">
         <f t="shared" si="0"/>
-        <v>1878591.6782226562</v>
+        <v>1878591.6782226563</v>
       </c>
       <c r="G65" s="24">
         <f t="shared" si="1"/>
@@ -15299,7 +15293,7 @@
         <v>0.84741083187328992</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>72</v>
       </c>
@@ -15317,7 +15311,7 @@
       </c>
       <c r="F66" s="22">
         <f t="shared" si="0"/>
-        <v>1793353.2719726562</v>
+        <v>1793353.2719726563</v>
       </c>
       <c r="G66" s="24">
         <f t="shared" si="1"/>
@@ -15336,7 +15330,7 @@
         <v>0.83690575362515485</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>73</v>
       </c>
@@ -15354,7 +15348,7 @@
       </c>
       <c r="F67" s="22">
         <f t="shared" ref="F67:F101" si="5">F68+E67</f>
-        <v>1709137.4594726562</v>
+        <v>1709137.4594726563</v>
       </c>
       <c r="G67" s="24">
         <f t="shared" si="1"/>
@@ -15373,7 +15367,7 @@
         <v>0.82583270767676631</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>74</v>
       </c>
@@ -15391,7 +15385,7 @@
       </c>
       <c r="F68" s="22">
         <f t="shared" si="5"/>
-        <v>1626000.5532226562</v>
+        <v>1626000.5532226563</v>
       </c>
       <c r="G68" s="24">
         <f t="shared" ref="G68:G103" si="6">F68/C68</f>
@@ -15410,7 +15404,7 @@
         <v>0.81414765346872919</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>75</v>
       </c>
@@ -15428,7 +15422,7 @@
       </c>
       <c r="F69" s="22">
         <f t="shared" si="5"/>
-        <v>1544001.5532226562</v>
+        <v>1544001.5532226563</v>
       </c>
       <c r="G69" s="24">
         <f t="shared" si="6"/>
@@ -15447,7 +15441,7 @@
         <v>0.8018240317990698</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
@@ -15465,7 +15459,7 @@
       </c>
       <c r="F70" s="22">
         <f t="shared" si="5"/>
-        <v>1463202.9907226562</v>
+        <v>1463202.9907226563</v>
       </c>
       <c r="G70" s="24">
         <f t="shared" si="6"/>
@@ -15484,7 +15478,7 @@
         <v>0.78888087543516239</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>77</v>
       </c>
@@ -15502,7 +15496,7 @@
       </c>
       <c r="F71" s="22">
         <f t="shared" si="5"/>
-        <v>1383667.7641601562</v>
+        <v>1383667.7641601563</v>
       </c>
       <c r="G71" s="24">
         <f t="shared" si="6"/>
@@ -15521,7 +15515,7 @@
         <v>0.77537406218222182</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>78</v>
       </c>
@@ -15539,7 +15533,7 @@
       </c>
       <c r="F72" s="22">
         <f t="shared" si="5"/>
-        <v>1305455.0297851562</v>
+        <v>1305455.0297851563</v>
       </c>
       <c r="G72" s="24">
         <f t="shared" si="6"/>
@@ -15558,7 +15552,7 @@
         <v>0.76127257130922077</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>79</v>
       </c>
@@ -15576,7 +15570,7 @@
       </c>
       <c r="F73" s="22">
         <f t="shared" si="5"/>
-        <v>1228622.7172851562</v>
+        <v>1228622.7172851563</v>
       </c>
       <c r="G73" s="24">
         <f t="shared" si="6"/>
@@ -15595,7 +15589,7 @@
         <v>0.74660737433871471</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>80</v>
       </c>
@@ -15613,7 +15607,7 @@
       </c>
       <c r="F74" s="22">
         <f t="shared" si="5"/>
-        <v>1153228.7329101562</v>
+        <v>1153228.7329101563</v>
       </c>
       <c r="G74" s="24">
         <f t="shared" si="6"/>
@@ -15632,7 +15626,7 @@
         <v>0.73117013698347233</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>81</v>
       </c>
@@ -15650,7 +15644,7 @@
       </c>
       <c r="F75" s="22">
         <f t="shared" si="5"/>
-        <v>1079339.8735351562</v>
+        <v>1079339.8735351563</v>
       </c>
       <c r="G75" s="24">
         <f t="shared" si="6"/>
@@ -15669,7 +15663,7 @@
         <v>0.71461785238828957</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>82</v>
       </c>
@@ -15687,7 +15681,7 @@
       </c>
       <c r="F76" s="22">
         <f t="shared" si="5"/>
-        <v>1007050.4829101562</v>
+        <v>1007050.4829101563</v>
       </c>
       <c r="G76" s="24">
         <f t="shared" si="6"/>
@@ -15706,7 +15700,7 @@
         <v>0.69699846959578027</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
@@ -15743,7 +15737,7 @@
         <v>0.67819003888710905</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
@@ -15780,7 +15774,7 @@
         <v>0.65809859865303677</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>85</v>
       </c>
@@ -15817,7 +15811,7 @@
         <v>0.63697280008929413</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>86</v>
       </c>
@@ -15854,7 +15848,7 @@
         <v>0.61424638172906265</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>87</v>
       </c>
@@ -15891,7 +15885,7 @@
         <v>0.59020730248278241</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>88</v>
       </c>
@@ -15928,7 +15922,7 @@
         <v>0.56516346546960428</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>89</v>
       </c>
@@ -15965,7 +15959,7 @@
         <v>0.53859648661575776</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>90</v>
       </c>
@@ -16002,7 +15996,7 @@
         <v>0.51096213879344221</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>91</v>
       </c>
@@ -16039,7 +16033,7 @@
         <v>0.48236281341637866</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>92</v>
       </c>
@@ -16076,7 +16070,7 @@
         <v>0.45272298918244641</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>93</v>
       </c>
@@ -16113,7 +16107,7 @@
         <v>0.42199463086201006</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>94</v>
       </c>
@@ -16150,7 +16144,7 @@
         <v>0.39084095495932925</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>95</v>
       </c>
@@ -16187,7 +16181,7 @@
         <v>0.35887847062137085</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>96</v>
       </c>
@@ -16224,7 +16218,7 @@
         <v>0.32638689047424224</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>97</v>
       </c>
@@ -16261,7 +16255,7 @@
         <v>0.29372485083837613</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>98</v>
       </c>
@@ -16298,7 +16292,7 @@
         <v>0.26129222338736091</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>99</v>
       </c>
@@ -16335,7 +16329,7 @@
         <v>0.22951766573430621</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>100</v>
       </c>
@@ -16372,7 +16366,7 @@
         <v>0.19884180753310096</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>101</v>
       </c>
@@ -16409,7 +16403,7 @@
         <v>0.16969669122480258</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>102</v>
       </c>
@@ -16446,7 +16440,7 @@
         <v>0.14248269035114536</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>103</v>
       </c>
@@ -16483,7 +16477,7 @@
         <v>0.1175448167073157</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>104</v>
       </c>
@@ -16520,7 +16514,7 @@
         <v>9.5150812952521563E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>105</v>
       </c>
@@ -16557,7 +16551,7 @@
         <v>7.5473654673787666E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>106</v>
       </c>
@@ -16594,7 +16588,7 @@
         <v>5.8580957874710182E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>107</v>
       </c>
@@ -16631,7 +16625,7 @@
         <v>4.4433040273442005E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>108</v>
       </c>
@@ -16668,7 +16662,7 @@
         <v>3.2890381933052056E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>109</v>
       </c>
@@ -16704,14 +16698,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
